--- a/tests/testthat/test_data/Results_by_sample.xlsx
+++ b/tests/testthat/test_data/Results_by_sample.xlsx
@@ -12,8 +12,9 @@
     <sheet name="Cell Densities" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mean Expression" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="H-Score" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Nearest Neighbors" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Count Within" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="H-Score CD8+" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Nearest Neighbors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Count Within" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
@@ -22,14 +23,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Cell Densities'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Nearest Neighbors'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Count Within'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'H-Score CD8+'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Nearest Neighbors'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'Count Within'!$1:$2</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Slide ID</t>
   </si>
@@ -157,6 +159,9 @@
     <t xml:space="preserve">H-Score</t>
   </si>
   <si>
+    <t xml:space="preserve">H-Score, Membrane PDL1, CD8+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nearest Neighbor Distances for Phenotype Pairs (microns)</t>
   </si>
   <si>
@@ -203,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="125">
+  <numFmts count="139">
     <numFmt numFmtId="50000" formatCode="0%"/>
     <numFmt numFmtId="50001" formatCode="0%"/>
     <numFmt numFmtId="50002" formatCode="0%"/>
@@ -328,7 +333,21 @@
     <numFmt numFmtId="50121" formatCode="0.0%"/>
     <numFmt numFmtId="50122" formatCode="0.0%"/>
     <numFmt numFmtId="50123" formatCode="0.0%"/>
-    <numFmt numFmtId="50124" formatCode="0.00"/>
+    <numFmt numFmtId="50124" formatCode="0.0%"/>
+    <numFmt numFmtId="50125" formatCode="0.0%"/>
+    <numFmt numFmtId="50126" formatCode="0.0%"/>
+    <numFmt numFmtId="50127" formatCode="0.0%"/>
+    <numFmt numFmtId="50128" formatCode="0.0%"/>
+    <numFmt numFmtId="50129" formatCode="0.0%"/>
+    <numFmt numFmtId="50130" formatCode="0.0%"/>
+    <numFmt numFmtId="50131" formatCode="0.0%"/>
+    <numFmt numFmtId="50132" formatCode="0.0%"/>
+    <numFmt numFmtId="50133" formatCode="0.0%"/>
+    <numFmt numFmtId="50134" formatCode="0.0%"/>
+    <numFmt numFmtId="50135" formatCode="0.0%"/>
+    <numFmt numFmtId="50136" formatCode="0.0%"/>
+    <numFmt numFmtId="50137" formatCode="0.0%"/>
+    <numFmt numFmtId="50138" formatCode="0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -496,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -666,7 +685,29 @@
     <xf numFmtId="50121" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="50122" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="50123" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50124" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50124" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50125" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50126" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50127" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50128" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50129" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50130" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50131" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50132" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50133" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50134" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50135" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50136" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50137" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50138" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4790,14 +4831,1058 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="160" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H5" s="160" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I5" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="160" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="160" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="154" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="154" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="160" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H14" s="160" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="160" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J14" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="160" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H15" s="160" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I15" s="160" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J15" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="155" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H16" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="155" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="J16" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="160" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="H17" s="160" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I17" s="160" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="J17" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="160" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="I18" s="160" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J18" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="156" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="160" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H20" s="160" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="I20" s="160" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J20" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="160" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="H21" s="160" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="I21" s="160" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="J21" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H23" s="160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="160" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H24" s="160" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="I24" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="158" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="160" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="H26" s="160" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="160" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="J26" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="160" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="H27" s="160" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I27" s="160" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J27" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="160" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="H29" s="160" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="I29" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="K2:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4811,25 +5896,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4842,19 +5927,19 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="147" t="n">
+      <c r="D3" s="161" t="n">
         <v>23.0705439901187</v>
       </c>
-      <c r="E3" s="147" t="n">
+      <c r="E3" s="161" t="n">
         <v>102.241413589714</v>
       </c>
-      <c r="F3" s="147" t="n">
+      <c r="F3" s="161" t="n">
         <v>66.6520817379322</v>
       </c>
-      <c r="G3" s="147" t="n">
+      <c r="G3" s="161" t="n">
         <v>226.614209616255</v>
       </c>
-      <c r="H3" s="147" t="n">
+      <c r="H3" s="161" t="n">
         <v>79.3094736331952</v>
       </c>
     </row>
@@ -4868,19 +5953,19 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="147" t="n">
+      <c r="D4" s="161" t="n">
         <v>23.8379948821204</v>
       </c>
-      <c r="E4" s="147" t="n">
+      <c r="E4" s="161" t="n">
         <v>147.90194990628</v>
       </c>
-      <c r="F4" s="147" t="n">
+      <c r="F4" s="161" t="n">
         <v>138.104313453071</v>
       </c>
-      <c r="G4" s="147" t="n">
+      <c r="G4" s="161" t="n">
         <v>315.978638518492</v>
       </c>
-      <c r="H4" s="147" t="n">
+      <c r="H4" s="161" t="n">
         <v>91.0435699870752</v>
       </c>
     </row>
@@ -4894,19 +5979,19 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="147" t="n">
+      <c r="D5" s="161" t="n">
         <v>9.5524865872714</v>
       </c>
-      <c r="E5" s="147" t="n">
+      <c r="E5" s="161" t="n">
         <v>133.288766893603</v>
       </c>
-      <c r="F5" s="147" t="n">
+      <c r="F5" s="161" t="n">
         <v>127.003936946852</v>
       </c>
-      <c r="G5" s="147" t="n">
+      <c r="G5" s="161" t="n">
         <v>275.573946518897</v>
       </c>
-      <c r="H5" s="147" t="n">
+      <c r="H5" s="161" t="n">
         <v>71.3642635169411</v>
       </c>
     </row>
@@ -4920,19 +6005,19 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="147" t="n">
+      <c r="D6" s="161" t="n">
         <v>16.8077363139716</v>
       </c>
-      <c r="E6" s="147" t="n">
+      <c r="E6" s="161" t="n">
         <v>141.505716630288</v>
       </c>
-      <c r="F6" s="147" t="n">
+      <c r="F6" s="161" t="n">
         <v>124.711573140281</v>
       </c>
-      <c r="G6" s="147" t="n">
+      <c r="G6" s="161" t="n">
         <v>333.839781931393</v>
       </c>
-      <c r="H6" s="147" t="n">
+      <c r="H6" s="161" t="n">
         <v>76.1909102911638</v>
       </c>
     </row>
@@ -4946,19 +6031,19 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="147" t="n">
+      <c r="D7" s="161" t="n">
         <v>9.39414711402797</v>
       </c>
-      <c r="E7" s="147" t="n">
+      <c r="E7" s="161" t="n">
         <v>145.648740936273</v>
       </c>
-      <c r="F7" s="147" t="n">
+      <c r="F7" s="161" t="n">
         <v>127.918919632711</v>
       </c>
-      <c r="G7" s="147" t="n">
+      <c r="G7" s="161" t="n">
         <v>368.4280798202</v>
       </c>
-      <c r="H7" s="147" t="n">
+      <c r="H7" s="161" t="n">
         <v>84.0292541340072</v>
       </c>
     </row>
@@ -4972,19 +6057,19 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="147" t="n">
+      <c r="D8" s="161" t="n">
         <v>23.8379948821204</v>
       </c>
-      <c r="E8" s="147" t="n">
+      <c r="E8" s="161" t="n">
         <v>56.3802637043408</v>
       </c>
-      <c r="F8" s="147" t="n">
+      <c r="F8" s="161" t="n">
         <v>39.3270005878386</v>
       </c>
-      <c r="G8" s="147" t="n">
+      <c r="G8" s="161" t="n">
         <v>182.801805242727</v>
       </c>
-      <c r="H8" s="147" t="n">
+      <c r="H8" s="161" t="n">
         <v>46.4293473358415</v>
       </c>
     </row>
@@ -4998,19 +6083,19 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="147" t="n">
+      <c r="D9" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E9" s="147" t="n">
+      <c r="E9" s="161" t="n">
         <v>46.2247545722319</v>
       </c>
-      <c r="F9" s="147" t="n">
+      <c r="F9" s="161" t="n">
         <v>39.2718822394284</v>
       </c>
-      <c r="G9" s="147" t="n">
+      <c r="G9" s="161" t="n">
         <v>128.379320764678</v>
       </c>
-      <c r="H9" s="147" t="n">
+      <c r="H9" s="161" t="n">
         <v>36.231198415747</v>
       </c>
     </row>
@@ -5024,19 +6109,19 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="147" t="n">
+      <c r="D10" s="161" t="n">
         <v>13.0096118312577</v>
       </c>
-      <c r="E10" s="147" t="n">
+      <c r="E10" s="161" t="n">
         <v>54.3318145925178</v>
       </c>
-      <c r="F10" s="147" t="n">
+      <c r="F10" s="161" t="n">
         <v>47.1831537733543</v>
       </c>
-      <c r="G10" s="147" t="n">
+      <c r="G10" s="161" t="n">
         <v>156.400127877186</v>
       </c>
-      <c r="H10" s="147" t="n">
+      <c r="H10" s="161" t="n">
         <v>31.727838257915</v>
       </c>
     </row>
@@ -5050,19 +6135,19 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="147" t="n">
+      <c r="D11" s="161" t="n">
         <v>6.9462219947249</v>
       </c>
-      <c r="E11" s="147" t="n">
+      <c r="E11" s="161" t="n">
         <v>109.947379076899</v>
       </c>
-      <c r="F11" s="147" t="n">
+      <c r="F11" s="161" t="n">
         <v>104.835860972723</v>
       </c>
-      <c r="G11" s="147" t="n">
+      <c r="G11" s="161" t="n">
         <v>230.656671267059</v>
       </c>
-      <c r="H11" s="147" t="n">
+      <c r="H11" s="161" t="n">
         <v>53.7646941362747</v>
       </c>
     </row>
@@ -5076,19 +6161,19 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="147" t="n">
+      <c r="D12" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E12" s="147" t="n">
+      <c r="E12" s="161" t="n">
         <v>75.8109572853332</v>
       </c>
-      <c r="F12" s="147" t="n">
+      <c r="F12" s="161" t="n">
         <v>58.2000859105895</v>
       </c>
-      <c r="G12" s="147" t="n">
+      <c r="G12" s="161" t="n">
         <v>230.656671267059</v>
       </c>
-      <c r="H12" s="147" t="n">
+      <c r="H12" s="161" t="n">
         <v>53.0129424752536</v>
       </c>
     </row>
@@ -5102,19 +6187,19 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="147" t="n">
+      <c r="D13" s="161" t="n">
         <v>9.5524865872714</v>
       </c>
-      <c r="E13" s="147" t="n">
+      <c r="E13" s="161" t="n">
         <v>80.2780281668253</v>
       </c>
-      <c r="F13" s="147" t="n">
+      <c r="F13" s="161" t="n">
         <v>59.3122931608305</v>
       </c>
-      <c r="G13" s="147" t="n">
+      <c r="G13" s="161" t="n">
         <v>225.00055555487</v>
       </c>
-      <c r="H13" s="147" t="n">
+      <c r="H13" s="161" t="n">
         <v>61.3977306280435</v>
       </c>
     </row>
@@ -5128,19 +6213,19 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="147" t="n">
+      <c r="D14" s="161" t="n">
         <v>13.0096118312577</v>
       </c>
-      <c r="E14" s="147" t="n">
+      <c r="E14" s="161" t="n">
         <v>75.0024993590635</v>
       </c>
-      <c r="F14" s="147" t="n">
+      <c r="F14" s="161" t="n">
         <v>65.5547405346806</v>
       </c>
-      <c r="G14" s="147" t="n">
+      <c r="G14" s="161" t="n">
         <v>273.132293952949</v>
       </c>
-      <c r="H14" s="147" t="n">
+      <c r="H14" s="161" t="n">
         <v>52.7284217018154</v>
       </c>
     </row>
@@ -5154,19 +6239,19 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="147" t="n">
+      <c r="D15" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E15" s="147" t="n">
+      <c r="E15" s="161" t="n">
         <v>69.2395553689934</v>
       </c>
-      <c r="F15" s="147" t="n">
+      <c r="F15" s="161" t="n">
         <v>41.6923254328659</v>
       </c>
-      <c r="G15" s="147" t="n">
+      <c r="G15" s="161" t="n">
         <v>492.447966794462</v>
       </c>
-      <c r="H15" s="147" t="n">
+      <c r="H15" s="161" t="n">
         <v>86.5440452681807</v>
       </c>
     </row>
@@ -5180,19 +6265,19 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="147" t="n">
+      <c r="D16" s="161" t="n">
         <v>11.1803398874989</v>
       </c>
-      <c r="E16" s="147" t="n">
+      <c r="E16" s="161" t="n">
         <v>139.938246567773</v>
       </c>
-      <c r="F16" s="147" t="n">
+      <c r="F16" s="161" t="n">
         <v>133.205578058342</v>
       </c>
-      <c r="G16" s="147" t="n">
+      <c r="G16" s="161" t="n">
         <v>311.79239888105</v>
       </c>
-      <c r="H16" s="147" t="n">
+      <c r="H16" s="161" t="n">
         <v>67.4971097097608</v>
       </c>
     </row>
@@ -5206,19 +6291,19 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="147" t="n">
+      <c r="D17" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E17" s="147" t="n">
+      <c r="E17" s="161" t="n">
         <v>104.922299134285</v>
       </c>
-      <c r="F17" s="147" t="n">
+      <c r="F17" s="161" t="n">
         <v>85.8792757305277</v>
       </c>
-      <c r="G17" s="147" t="n">
+      <c r="G17" s="161" t="n">
         <v>492.447966794462</v>
       </c>
-      <c r="H17" s="147" t="n">
+      <c r="H17" s="161" t="n">
         <v>70.5498442479252</v>
       </c>
     </row>
@@ -5232,19 +6317,19 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="147" t="n">
+      <c r="D18" s="161" t="n">
         <v>16.8077363139716</v>
       </c>
-      <c r="E18" s="147" t="n">
+      <c r="E18" s="161" t="n">
         <v>48.6149379651504</v>
       </c>
-      <c r="F18" s="147" t="n">
+      <c r="F18" s="161" t="n">
         <v>37.9098351815257</v>
       </c>
-      <c r="G18" s="147" t="n">
+      <c r="G18" s="161" t="n">
         <v>112.642132437201</v>
       </c>
-      <c r="H18" s="147" t="n">
+      <c r="H18" s="161" t="n">
         <v>30.0224509815308</v>
       </c>
     </row>
@@ -5258,19 +6343,19 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="147" t="n">
+      <c r="D19" s="161" t="n">
         <v>6.9462219947249</v>
       </c>
-      <c r="E19" s="147" t="n">
+      <c r="E19" s="161" t="n">
         <v>68.8321067268023</v>
       </c>
-      <c r="F19" s="147" t="n">
+      <c r="F19" s="161" t="n">
         <v>65.9213592674542</v>
       </c>
-      <c r="G19" s="147" t="n">
+      <c r="G19" s="161" t="n">
         <v>142.443848586031</v>
       </c>
-      <c r="H19" s="147" t="n">
+      <c r="H19" s="161" t="n">
         <v>37.8066614329479</v>
       </c>
     </row>
@@ -5284,19 +6369,19 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="147" t="n">
+      <c r="D20" s="161" t="n">
         <v>11.1803398874989</v>
       </c>
-      <c r="E20" s="147" t="n">
+      <c r="E20" s="161" t="n">
         <v>70.377151816057</v>
       </c>
-      <c r="F20" s="147" t="n">
+      <c r="F20" s="161" t="n">
         <v>63.5708266424151</v>
       </c>
-      <c r="G20" s="147" t="n">
+      <c r="G20" s="161" t="n">
         <v>159.521942064407</v>
       </c>
-      <c r="H20" s="147" t="n">
+      <c r="H20" s="161" t="n">
         <v>45.0210141933925</v>
       </c>
     </row>
@@ -5310,19 +6395,19 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="147" t="n">
+      <c r="D21" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E21" s="147" t="n">
+      <c r="E21" s="161" t="n">
         <v>20.654645454326</v>
       </c>
-      <c r="F21" s="147" t="n">
+      <c r="F21" s="161" t="n">
         <v>15.429691084122</v>
       </c>
-      <c r="G21" s="147" t="n">
+      <c r="G21" s="161" t="n">
         <v>243.100802137714</v>
       </c>
-      <c r="H21" s="147" t="n">
+      <c r="H21" s="161" t="n">
         <v>22.761844745671</v>
       </c>
     </row>
@@ -5336,19 +6421,19 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="147" t="n">
+      <c r="D22" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E22" s="147" t="n">
+      <c r="E22" s="161" t="n">
         <v>47.5162004611735</v>
       </c>
-      <c r="F22" s="147" t="n">
+      <c r="F22" s="161" t="n">
         <v>33.380383460949</v>
       </c>
-      <c r="G22" s="147" t="n">
+      <c r="G22" s="161" t="n">
         <v>243.100802137714</v>
       </c>
-      <c r="H22" s="147" t="n">
+      <c r="H22" s="161" t="n">
         <v>39.4901718747773</v>
       </c>
     </row>
@@ -5362,19 +6447,19 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="147" t="n">
+      <c r="D23" s="161" t="n">
         <v>9.39414711402797</v>
       </c>
-      <c r="E23" s="147" t="n">
+      <c r="E23" s="161" t="n">
         <v>15.8644017598947</v>
       </c>
-      <c r="F23" s="147" t="n">
+      <c r="F23" s="161" t="n">
         <v>15.3545875442147</v>
       </c>
-      <c r="G23" s="147" t="n">
+      <c r="G23" s="161" t="n">
         <v>29.8202951024969</v>
       </c>
-      <c r="H23" s="147" t="n">
+      <c r="H23" s="161" t="n">
         <v>6.08009108124859</v>
       </c>
     </row>
@@ -5388,19 +6473,19 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="147" t="n">
+      <c r="D24" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E24" s="147" t="n">
+      <c r="E24" s="161" t="n">
         <v>16.1445981572334</v>
       </c>
-      <c r="F24" s="147" t="n">
+      <c r="F24" s="161" t="n">
         <v>14.8660687473185</v>
       </c>
-      <c r="G24" s="147" t="n">
+      <c r="G24" s="161" t="n">
         <v>38.8233177356083</v>
       </c>
-      <c r="H24" s="147" t="n">
+      <c r="H24" s="161" t="n">
         <v>7.90277191775305</v>
       </c>
     </row>
@@ -5414,19 +6499,19 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="147" t="n">
+      <c r="D25" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E25" s="147" t="n">
+      <c r="E25" s="161" t="n">
         <v>16.3819688567368</v>
       </c>
-      <c r="F25" s="147" t="n">
+      <c r="F25" s="161" t="n">
         <v>14.5344418537486</v>
       </c>
-      <c r="G25" s="147" t="n">
+      <c r="G25" s="161" t="n">
         <v>30.2200264725232</v>
       </c>
-      <c r="H25" s="147" t="n">
+      <c r="H25" s="161" t="n">
         <v>7.24641057739178</v>
       </c>
     </row>
@@ -5440,19 +6525,19 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="147" t="n">
+      <c r="D26" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E26" s="147" t="n">
+      <c r="E26" s="161" t="n">
         <v>16.4259858686947</v>
       </c>
-      <c r="F26" s="147" t="n">
+      <c r="F26" s="161" t="n">
         <v>13.9506848577859</v>
       </c>
-      <c r="G26" s="147" t="n">
+      <c r="G26" s="161" t="n">
         <v>50.5024751868658</v>
       </c>
-      <c r="H26" s="147" t="n">
+      <c r="H26" s="161" t="n">
         <v>8.68692635454219</v>
       </c>
     </row>
@@ -5466,19 +6551,19 @@
       <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="147" t="n">
+      <c r="D27" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E27" s="147" t="n">
+      <c r="E27" s="161" t="n">
         <v>16.7875706446856</v>
       </c>
-      <c r="F27" s="147" t="n">
-        <v>15</v>
-      </c>
-      <c r="G27" s="147" t="n">
+      <c r="F27" s="161" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" s="161" t="n">
         <v>50.5024751868658</v>
       </c>
-      <c r="H27" s="147" t="n">
+      <c r="H27" s="161" t="n">
         <v>8.39478310729107</v>
       </c>
     </row>
@@ -5492,19 +6577,19 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="147" t="n">
+      <c r="D28" s="161" t="n">
         <v>45.6097577279248</v>
       </c>
-      <c r="E28" s="147" t="n">
+      <c r="E28" s="161" t="n">
         <v>108.494517020598</v>
       </c>
-      <c r="F28" s="147" t="n">
+      <c r="F28" s="161" t="n">
         <v>96.3768644437035</v>
       </c>
-      <c r="G28" s="147" t="n">
+      <c r="G28" s="161" t="n">
         <v>262.622352437868</v>
       </c>
-      <c r="H28" s="147" t="n">
+      <c r="H28" s="161" t="n">
         <v>69.0520438353524</v>
       </c>
     </row>
@@ -5518,19 +6603,19 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="147" t="n">
+      <c r="D29" s="161" t="n">
         <v>20.4266982158155</v>
       </c>
-      <c r="E29" s="147" t="n">
+      <c r="E29" s="161" t="n">
         <v>138.242819910716</v>
       </c>
-      <c r="F29" s="147" t="n">
+      <c r="F29" s="161" t="n">
         <v>122.218042857837</v>
       </c>
-      <c r="G29" s="147" t="n">
+      <c r="G29" s="161" t="n">
         <v>321.726592000102</v>
       </c>
-      <c r="H29" s="147" t="n">
+      <c r="H29" s="161" t="n">
         <v>80.7711308948006</v>
       </c>
     </row>
@@ -5544,19 +6629,19 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="147" t="n">
+      <c r="D30" s="161" t="n">
         <v>31.8001572323157</v>
       </c>
-      <c r="E30" s="147" t="n">
+      <c r="E30" s="161" t="n">
         <v>105.22965643734</v>
       </c>
-      <c r="F30" s="147" t="n">
+      <c r="F30" s="161" t="n">
         <v>99.4607692249636</v>
       </c>
-      <c r="G30" s="147" t="n">
+      <c r="G30" s="161" t="n">
         <v>262.497619036821</v>
       </c>
-      <c r="H30" s="147" t="n">
+      <c r="H30" s="161" t="n">
         <v>64.7914981226473</v>
       </c>
     </row>
@@ -5570,19 +6655,19 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="147" t="n">
+      <c r="D31" s="161" t="n">
         <v>7.10633520177595</v>
       </c>
-      <c r="E31" s="147" t="n">
+      <c r="E31" s="161" t="n">
         <v>134.023736405123</v>
       </c>
-      <c r="F31" s="147" t="n">
+      <c r="F31" s="161" t="n">
         <v>129.3928127834</v>
       </c>
-      <c r="G31" s="147" t="n">
+      <c r="G31" s="161" t="n">
         <v>416.192563604877</v>
       </c>
-      <c r="H31" s="147" t="n">
+      <c r="H31" s="161" t="n">
         <v>71.8430485344411</v>
       </c>
     </row>
@@ -5596,19 +6681,19 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="147" t="n">
+      <c r="D32" s="161" t="n">
         <v>7.10633520177595</v>
       </c>
-      <c r="E32" s="147" t="n">
+      <c r="E32" s="161" t="n">
         <v>123.78266552203</v>
       </c>
-      <c r="F32" s="147" t="n">
+      <c r="F32" s="161" t="n">
         <v>108.030662913012</v>
       </c>
-      <c r="G32" s="147" t="n">
+      <c r="G32" s="161" t="n">
         <v>416.192563604877</v>
       </c>
-      <c r="H32" s="147" t="n">
+      <c r="H32" s="161" t="n">
         <v>78.7377888027848</v>
       </c>
     </row>
@@ -5622,19 +6707,19 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="147" t="n">
+      <c r="D33" s="161" t="n">
         <v>20.4266982158155</v>
       </c>
-      <c r="E33" s="147" t="n">
+      <c r="E33" s="161" t="n">
         <v>146.440114703808</v>
       </c>
-      <c r="F33" s="147" t="n">
+      <c r="F33" s="161" t="n">
         <v>149.840748796848</v>
       </c>
-      <c r="G33" s="147" t="n">
+      <c r="G33" s="161" t="n">
         <v>273.333587398256</v>
       </c>
-      <c r="H33" s="147" t="n">
+      <c r="H33" s="161" t="n">
         <v>64.6521503070861</v>
       </c>
     </row>
@@ -5648,19 +6733,19 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="147" t="n">
+      <c r="D34" s="161" t="n">
         <v>55.1769879569373</v>
       </c>
-      <c r="E34" s="147" t="n">
+      <c r="E34" s="161" t="n">
         <v>149.961381832805</v>
       </c>
-      <c r="F34" s="147" t="n">
+      <c r="F34" s="161" t="n">
         <v>113.183479359843</v>
       </c>
-      <c r="G34" s="147" t="n">
+      <c r="G34" s="161" t="n">
         <v>274.832676368732</v>
       </c>
-      <c r="H34" s="147" t="n">
+      <c r="H34" s="161" t="n">
         <v>81.6304597172235</v>
       </c>
     </row>
@@ -5674,19 +6759,19 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="147" t="n">
+      <c r="D35" s="161" t="n">
         <v>37.4065502285362</v>
       </c>
-      <c r="E35" s="147" t="n">
+      <c r="E35" s="161" t="n">
         <v>112.250521575101</v>
       </c>
-      <c r="F35" s="147" t="n">
+      <c r="F35" s="161" t="n">
         <v>107.085015815891</v>
       </c>
-      <c r="G35" s="147" t="n">
+      <c r="G35" s="161" t="n">
         <v>205.027437188294</v>
       </c>
-      <c r="H35" s="147" t="n">
+      <c r="H35" s="161" t="n">
         <v>54.6831317289563</v>
       </c>
     </row>
@@ -5700,19 +6785,19 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="147" t="n">
+      <c r="D36" s="161" t="n">
         <v>6.02079728939615</v>
       </c>
-      <c r="E36" s="147" t="n">
+      <c r="E36" s="161" t="n">
         <v>152.68673233729</v>
       </c>
-      <c r="F36" s="147" t="n">
+      <c r="F36" s="161" t="n">
         <v>142.779550356485</v>
       </c>
-      <c r="G36" s="147" t="n">
+      <c r="G36" s="161" t="n">
         <v>319.262039710329</v>
       </c>
-      <c r="H36" s="147" t="n">
+      <c r="H36" s="161" t="n">
         <v>73.7977377545328</v>
       </c>
     </row>
@@ -5726,19 +6811,19 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="147" t="n">
+      <c r="D37" s="161" t="n">
         <v>6.02079728939615</v>
       </c>
-      <c r="E37" s="147" t="n">
+      <c r="E37" s="161" t="n">
         <v>136.668507386599</v>
       </c>
-      <c r="F37" s="147" t="n">
+      <c r="F37" s="161" t="n">
         <v>126.392740871392</v>
       </c>
-      <c r="G37" s="147" t="n">
+      <c r="G37" s="161" t="n">
         <v>319.262039710329</v>
       </c>
-      <c r="H37" s="147" t="n">
+      <c r="H37" s="161" t="n">
         <v>70.0650778927768</v>
       </c>
     </row>
@@ -5752,19 +6837,19 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="147" t="n">
+      <c r="D38" s="161" t="n">
         <v>31.8001572323157</v>
       </c>
-      <c r="E38" s="147" t="n">
+      <c r="E38" s="161" t="n">
         <v>103.005256526491</v>
       </c>
-      <c r="F38" s="147" t="n">
+      <c r="F38" s="161" t="n">
         <v>101.440869475769</v>
       </c>
-      <c r="G38" s="147" t="n">
+      <c r="G38" s="161" t="n">
         <v>192.829587978609</v>
       </c>
-      <c r="H38" s="147" t="n">
+      <c r="H38" s="161" t="n">
         <v>51.7569823492873</v>
       </c>
     </row>
@@ -5778,19 +6863,19 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="147" t="n">
+      <c r="D39" s="161" t="n">
         <v>37.4065502285362</v>
       </c>
-      <c r="E39" s="147" t="n">
+      <c r="E39" s="161" t="n">
         <v>86.2473232235572</v>
       </c>
-      <c r="F39" s="147" t="n">
+      <c r="F39" s="161" t="n">
         <v>86.3712915267567</v>
       </c>
-      <c r="G39" s="147" t="n">
+      <c r="G39" s="161" t="n">
         <v>126.372465355393</v>
       </c>
-      <c r="H39" s="147" t="n">
+      <c r="H39" s="161" t="n">
         <v>31.9772245726182</v>
       </c>
     </row>
@@ -5804,19 +6889,19 @@
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="147" t="n">
+      <c r="D40" s="161" t="n">
         <v>100.841459727634</v>
       </c>
-      <c r="E40" s="147" t="n">
+      <c r="E40" s="161" t="n">
         <v>180.632882476497</v>
       </c>
-      <c r="F40" s="147" t="n">
+      <c r="F40" s="161" t="n">
         <v>189.056869750877</v>
       </c>
-      <c r="G40" s="147" t="n">
+      <c r="G40" s="161" t="n">
         <v>298.335800734676</v>
       </c>
-      <c r="H40" s="147" t="n">
+      <c r="H40" s="161" t="n">
         <v>59.7288946289061</v>
       </c>
     </row>
@@ -5830,19 +6915,19 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="147" t="n">
+      <c r="D41" s="161" t="n">
         <v>26.5188612123522</v>
       </c>
-      <c r="E41" s="147" t="n">
+      <c r="E41" s="161" t="n">
         <v>119.913952050139</v>
       </c>
-      <c r="F41" s="147" t="n">
+      <c r="F41" s="161" t="n">
         <v>117.630778285277</v>
       </c>
-      <c r="G41" s="147" t="n">
+      <c r="G41" s="161" t="n">
         <v>222.308344422786</v>
       </c>
-      <c r="H41" s="147" t="n">
+      <c r="H41" s="161" t="n">
         <v>43.755600250813</v>
       </c>
     </row>
@@ -5856,19 +6941,19 @@
       <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="147" t="n">
+      <c r="D42" s="161" t="n">
         <v>5.22015325445528</v>
       </c>
-      <c r="E42" s="147" t="n">
+      <c r="E42" s="161" t="n">
         <v>106.959398462397</v>
       </c>
-      <c r="F42" s="147" t="n">
+      <c r="F42" s="161" t="n">
         <v>107.148254852328</v>
       </c>
-      <c r="G42" s="147" t="n">
+      <c r="G42" s="161" t="n">
         <v>298.335800734676</v>
       </c>
-      <c r="H42" s="147" t="n">
+      <c r="H42" s="161" t="n">
         <v>47.6194598601802</v>
       </c>
     </row>
@@ -5882,19 +6967,19 @@
       <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="147" t="n">
+      <c r="D43" s="161" t="n">
         <v>7.10633520177595</v>
       </c>
-      <c r="E43" s="147" t="n">
+      <c r="E43" s="161" t="n">
         <v>35.7759993592524</v>
       </c>
-      <c r="F43" s="147" t="n">
+      <c r="F43" s="161" t="n">
         <v>28.6923334708071</v>
       </c>
-      <c r="G43" s="147" t="n">
+      <c r="G43" s="161" t="n">
         <v>68.5437816289705</v>
       </c>
-      <c r="H43" s="147" t="n">
+      <c r="H43" s="161" t="n">
         <v>21.8231763423049</v>
       </c>
     </row>
@@ -5908,19 +6993,19 @@
       <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="147" t="n">
+      <c r="D44" s="161" t="n">
         <v>6.02079728939615</v>
       </c>
-      <c r="E44" s="147" t="n">
+      <c r="E44" s="161" t="n">
         <v>38.4294631277358</v>
       </c>
-      <c r="F44" s="147" t="n">
+      <c r="F44" s="161" t="n">
         <v>32.6534837345114</v>
       </c>
-      <c r="G44" s="147" t="n">
+      <c r="G44" s="161" t="n">
         <v>74.7930478052606</v>
       </c>
-      <c r="H44" s="147" t="n">
+      <c r="H44" s="161" t="n">
         <v>22.4216337312481</v>
       </c>
     </row>
@@ -5934,19 +7019,19 @@
       <c r="C45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="147" t="n">
+      <c r="D45" s="161" t="n">
         <v>26.5188612123522</v>
       </c>
-      <c r="E45" s="147" t="n">
+      <c r="E45" s="161" t="n">
         <v>38.2519733326431</v>
       </c>
-      <c r="F45" s="147" t="n">
+      <c r="F45" s="161" t="n">
         <v>38.9685584229928</v>
       </c>
-      <c r="G45" s="147" t="n">
+      <c r="G45" s="161" t="n">
         <v>53.0212221662232</v>
       </c>
-      <c r="H45" s="147" t="n">
+      <c r="H45" s="161" t="n">
         <v>8.38726125070114</v>
       </c>
     </row>
@@ -5960,19 +7045,19 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="147" t="n">
+      <c r="D46" s="161" t="n">
         <v>3.80788655293195</v>
       </c>
-      <c r="E46" s="147" t="n">
+      <c r="E46" s="161" t="n">
         <v>23.1211007991844</v>
       </c>
-      <c r="F46" s="147" t="n">
+      <c r="F46" s="161" t="n">
         <v>18.6681547025945</v>
       </c>
-      <c r="G46" s="147" t="n">
+      <c r="G46" s="161" t="n">
         <v>85.0308767448625</v>
       </c>
-      <c r="H46" s="147" t="n">
+      <c r="H46" s="161" t="n">
         <v>14.4685197998156</v>
       </c>
     </row>
@@ -5986,19 +7071,19 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="147" t="n">
+      <c r="D47" s="161" t="n">
         <v>3.80788655293195</v>
       </c>
-      <c r="E47" s="147" t="n">
+      <c r="E47" s="161" t="n">
         <v>32.6506974566612</v>
       </c>
-      <c r="F47" s="147" t="n">
+      <c r="F47" s="161" t="n">
         <v>29.1225679449021</v>
       </c>
-      <c r="G47" s="147" t="n">
+      <c r="G47" s="161" t="n">
         <v>89.2692556258872</v>
       </c>
-      <c r="H47" s="147" t="n">
+      <c r="H47" s="161" t="n">
         <v>18.3468103703472</v>
       </c>
     </row>
@@ -6012,19 +7097,19 @@
       <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="147" t="n">
+      <c r="D48" s="161" t="n">
         <v>7.10633520177595</v>
       </c>
-      <c r="E48" s="147" t="n">
+      <c r="E48" s="161" t="n">
         <v>17.3318381423698</v>
       </c>
-      <c r="F48" s="147" t="n">
+      <c r="F48" s="161" t="n">
         <v>18.6077940659284</v>
       </c>
-      <c r="G48" s="147" t="n">
+      <c r="G48" s="161" t="n">
         <v>24.0208242989286</v>
       </c>
-      <c r="H48" s="147" t="n">
+      <c r="H48" s="161" t="n">
         <v>5.39209317648721</v>
       </c>
     </row>
@@ -6038,19 +7123,19 @@
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="147" t="n">
+      <c r="D49" s="161" t="n">
         <v>6.02079728939615</v>
       </c>
-      <c r="E49" s="147" t="n">
+      <c r="E49" s="161" t="n">
         <v>21.7085452573192</v>
       </c>
-      <c r="F49" s="147" t="n">
+      <c r="F49" s="161" t="n">
         <v>20.1556443707464</v>
       </c>
-      <c r="G49" s="147" t="n">
+      <c r="G49" s="161" t="n">
         <v>37.1012129181783</v>
       </c>
-      <c r="H49" s="147" t="n">
+      <c r="H49" s="161" t="n">
         <v>11.1293618712975</v>
       </c>
     </row>
@@ -6064,19 +7149,19 @@
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="147" t="n">
+      <c r="D50" s="161" t="n">
         <v>5.22015325445528</v>
       </c>
-      <c r="E50" s="147" t="n">
+      <c r="E50" s="161" t="n">
         <v>17.7014748606407</v>
       </c>
-      <c r="F50" s="147" t="n">
+      <c r="F50" s="161" t="n">
         <v>16.1343213150392</v>
       </c>
-      <c r="G50" s="147" t="n">
+      <c r="G50" s="161" t="n">
         <v>33.4551939166402</v>
       </c>
-      <c r="H50" s="147" t="n">
+      <c r="H50" s="161" t="n">
         <v>9.76289960104666</v>
       </c>
     </row>
@@ -6090,19 +7175,19 @@
       <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="147" t="n">
+      <c r="D51" s="161" t="n">
         <v>3.80788655293195</v>
       </c>
-      <c r="E51" s="147" t="n">
+      <c r="E51" s="161" t="n">
         <v>19.1506128167316</v>
       </c>
-      <c r="F51" s="147" t="n">
+      <c r="F51" s="161" t="n">
         <v>17.4928556845359</v>
       </c>
-      <c r="G51" s="147" t="n">
+      <c r="G51" s="161" t="n">
         <v>56.6083032778761</v>
       </c>
-      <c r="H51" s="147" t="n">
+      <c r="H51" s="161" t="n">
         <v>9.23870240270624</v>
       </c>
     </row>
@@ -6116,19 +7201,19 @@
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="147" t="n">
+      <c r="D52" s="161" t="n">
         <v>3.5</v>
       </c>
-      <c r="E52" s="147" t="n">
+      <c r="E52" s="161" t="n">
         <v>18.2280774955879</v>
       </c>
-      <c r="F52" s="147" t="n">
+      <c r="F52" s="161" t="n">
         <v>17.2626765016321</v>
       </c>
-      <c r="G52" s="147" t="n">
+      <c r="G52" s="161" t="n">
         <v>56.6083032778761</v>
       </c>
-      <c r="H52" s="147" t="n">
+      <c r="H52" s="161" t="n">
         <v>8.92807935919555</v>
       </c>
     </row>
@@ -6142,19 +7227,19 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="147" t="n">
-        <v>9</v>
-      </c>
-      <c r="E53" s="147" t="n">
+      <c r="D53" s="161" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" s="161" t="n">
         <v>133.994912425524</v>
       </c>
-      <c r="F53" s="147" t="n">
+      <c r="F53" s="161" t="n">
         <v>68.8077030571432</v>
       </c>
-      <c r="G53" s="147" t="n">
+      <c r="G53" s="161" t="n">
         <v>314.700651413371</v>
       </c>
-      <c r="H53" s="147" t="n">
+      <c r="H53" s="161" t="n">
         <v>128.399308220185</v>
       </c>
     </row>
@@ -6168,19 +7253,19 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="147" t="n">
+      <c r="D54" s="161" t="n">
         <v>7.0178344238091</v>
       </c>
-      <c r="E54" s="147" t="n">
+      <c r="E54" s="161" t="n">
         <v>143.976149246378</v>
       </c>
-      <c r="F54" s="147" t="n">
+      <c r="F54" s="161" t="n">
         <v>98.0972747619332</v>
       </c>
-      <c r="G54" s="147" t="n">
+      <c r="G54" s="161" t="n">
         <v>472.358179774628</v>
       </c>
-      <c r="H54" s="147" t="n">
+      <c r="H54" s="161" t="n">
         <v>131.025966341429</v>
       </c>
     </row>
@@ -6194,19 +7279,19 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="147" t="n">
+      <c r="D55" s="161" t="n">
         <v>12.5299640861417</v>
       </c>
-      <c r="E55" s="147" t="n">
+      <c r="E55" s="161" t="n">
         <v>106.259366591139</v>
       </c>
-      <c r="F55" s="147" t="n">
+      <c r="F55" s="161" t="n">
         <v>53.4462346662513</v>
       </c>
-      <c r="G55" s="147" t="n">
+      <c r="G55" s="161" t="n">
         <v>388.390589484349</v>
       </c>
-      <c r="H55" s="147" t="n">
+      <c r="H55" s="161" t="n">
         <v>96.8243736095311</v>
       </c>
     </row>
@@ -6220,19 +7305,19 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="147" t="n">
+      <c r="D56" s="161" t="n">
         <v>13.1244047484067</v>
       </c>
-      <c r="E56" s="147" t="n">
+      <c r="E56" s="161" t="n">
         <v>183.821620910946</v>
       </c>
-      <c r="F56" s="147" t="n">
+      <c r="F56" s="161" t="n">
         <v>171.643893788765</v>
       </c>
-      <c r="G56" s="147" t="n">
+      <c r="G56" s="161" t="n">
         <v>498.231371954838</v>
       </c>
-      <c r="H56" s="147" t="n">
+      <c r="H56" s="161" t="n">
         <v>87.5943545631451</v>
       </c>
     </row>
@@ -6246,19 +7331,19 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="147" t="n">
+      <c r="D57" s="161" t="n">
         <v>7.0178344238091</v>
       </c>
-      <c r="E57" s="147" t="n">
+      <c r="E57" s="161" t="n">
         <v>171.03877637543</v>
       </c>
-      <c r="F57" s="147" t="n">
+      <c r="F57" s="161" t="n">
         <v>152.161098839355</v>
       </c>
-      <c r="G57" s="147" t="n">
+      <c r="G57" s="161" t="n">
         <v>568.208808449852</v>
       </c>
-      <c r="H57" s="147" t="n">
+      <c r="H57" s="161" t="n">
         <v>103.331593846275</v>
       </c>
     </row>
@@ -6272,19 +7357,19 @@
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="147" t="n">
+      <c r="D58" s="161" t="n">
         <v>7.0178344238091</v>
       </c>
-      <c r="E58" s="147" t="n">
+      <c r="E58" s="161" t="n">
         <v>51.1050818536517</v>
       </c>
-      <c r="F58" s="147" t="n">
+      <c r="F58" s="161" t="n">
         <v>35.7001400557477</v>
       </c>
-      <c r="G58" s="147" t="n">
+      <c r="G58" s="161" t="n">
         <v>179.569624380072</v>
       </c>
-      <c r="H58" s="147" t="n">
+      <c r="H58" s="161" t="n">
         <v>59.3792812647657</v>
       </c>
     </row>
@@ -6298,19 +7383,19 @@
       <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="147" t="n">
+      <c r="D59" s="161" t="n">
         <v>8.73212459828649</v>
       </c>
-      <c r="E59" s="147" t="n">
+      <c r="E59" s="161" t="n">
         <v>66.9048486109871</v>
       </c>
-      <c r="F59" s="147" t="n">
+      <c r="F59" s="161" t="n">
         <v>58.5249145622456</v>
       </c>
-      <c r="G59" s="147" t="n">
+      <c r="G59" s="161" t="n">
         <v>238.753534005258</v>
       </c>
-      <c r="H59" s="147" t="n">
+      <c r="H59" s="161" t="n">
         <v>45.5023981717615</v>
       </c>
     </row>
@@ -6324,19 +7409,19 @@
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="147" t="n">
+      <c r="D60" s="161" t="n">
         <v>9.96242942258564</v>
       </c>
-      <c r="E60" s="147" t="n">
+      <c r="E60" s="161" t="n">
         <v>57.1392474092463</v>
       </c>
-      <c r="F60" s="147" t="n">
+      <c r="F60" s="161" t="n">
         <v>36.2663756115772</v>
       </c>
-      <c r="G60" s="147" t="n">
+      <c r="G60" s="161" t="n">
         <v>171.233758353895</v>
       </c>
-      <c r="H60" s="147" t="n">
+      <c r="H60" s="161" t="n">
         <v>42.978780297363</v>
       </c>
     </row>
@@ -6350,19 +7435,19 @@
       <c r="C61" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="147" t="n">
+      <c r="D61" s="161" t="n">
         <v>9.61769203083567</v>
       </c>
-      <c r="E61" s="147" t="n">
+      <c r="E61" s="161" t="n">
         <v>105.513269341808</v>
       </c>
-      <c r="F61" s="147" t="n">
+      <c r="F61" s="161" t="n">
         <v>97.2997942379085</v>
       </c>
-      <c r="G61" s="147" t="n">
+      <c r="G61" s="161" t="n">
         <v>274.552818233578</v>
       </c>
-      <c r="H61" s="147" t="n">
+      <c r="H61" s="161" t="n">
         <v>51.6591923705023</v>
       </c>
     </row>
@@ -6376,19 +7461,19 @@
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="147" t="n">
+      <c r="D62" s="161" t="n">
         <v>5.59016994374947</v>
       </c>
-      <c r="E62" s="147" t="n">
+      <c r="E62" s="161" t="n">
         <v>88.8158335963495</v>
       </c>
-      <c r="F62" s="147" t="n">
+      <c r="F62" s="161" t="n">
         <v>80.2309167341368</v>
       </c>
-      <c r="G62" s="147" t="n">
+      <c r="G62" s="161" t="n">
         <v>274.552818233578</v>
       </c>
-      <c r="H62" s="147" t="n">
+      <c r="H62" s="161" t="n">
         <v>53.5580162385816</v>
       </c>
     </row>
@@ -6402,19 +7487,19 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="147" t="n">
+      <c r="D63" s="161" t="n">
         <v>12.5299640861417</v>
       </c>
-      <c r="E63" s="147" t="n">
+      <c r="E63" s="161" t="n">
         <v>72.5103506454137</v>
       </c>
-      <c r="F63" s="147" t="n">
+      <c r="F63" s="161" t="n">
         <v>45.8802789878178</v>
       </c>
-      <c r="G63" s="147" t="n">
+      <c r="G63" s="161" t="n">
         <v>279.480321310821</v>
       </c>
-      <c r="H63" s="147" t="n">
+      <c r="H63" s="161" t="n">
         <v>92.6075890923219</v>
       </c>
     </row>
@@ -6428,19 +7513,19 @@
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="147" t="n">
+      <c r="D64" s="161" t="n">
         <v>9.96242942258564</v>
       </c>
-      <c r="E64" s="147" t="n">
+      <c r="E64" s="161" t="n">
         <v>99.3614788796473</v>
       </c>
-      <c r="F64" s="147" t="n">
+      <c r="F64" s="161" t="n">
         <v>64.9498047154392</v>
       </c>
-      <c r="G64" s="147" t="n">
+      <c r="G64" s="161" t="n">
         <v>379.307263310367</v>
       </c>
-      <c r="H64" s="147" t="n">
+      <c r="H64" s="161" t="n">
         <v>91.4163935806887</v>
       </c>
     </row>
@@ -6454,19 +7539,19 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="147" t="n">
+      <c r="D65" s="161" t="n">
         <v>25.0449595727364</v>
       </c>
-      <c r="E65" s="147" t="n">
+      <c r="E65" s="161" t="n">
         <v>85.6660229489059</v>
       </c>
-      <c r="F65" s="147" t="n">
+      <c r="F65" s="161" t="n">
         <v>51.7928566503142</v>
       </c>
-      <c r="G65" s="147" t="n">
+      <c r="G65" s="161" t="n">
         <v>264.755075494314</v>
       </c>
-      <c r="H65" s="147" t="n">
+      <c r="H65" s="161" t="n">
         <v>72.2357912957619</v>
       </c>
     </row>
@@ -6480,19 +7565,19 @@
       <c r="C66" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="147" t="n">
+      <c r="D66" s="161" t="n">
         <v>21.077238908358</v>
       </c>
-      <c r="E66" s="147" t="n">
+      <c r="E66" s="161" t="n">
         <v>136.287501455641</v>
       </c>
-      <c r="F66" s="147" t="n">
+      <c r="F66" s="161" t="n">
         <v>125.423781413771</v>
       </c>
-      <c r="G66" s="147" t="n">
+      <c r="G66" s="161" t="n">
         <v>382.62416285436</v>
       </c>
-      <c r="H66" s="147" t="n">
+      <c r="H66" s="161" t="n">
         <v>67.4607222740836</v>
       </c>
     </row>
@@ -6506,19 +7591,19 @@
       <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="147" t="n">
+      <c r="D67" s="161" t="n">
         <v>7.56637297521078</v>
       </c>
-      <c r="E67" s="147" t="n">
+      <c r="E67" s="161" t="n">
         <v>125.61899386718</v>
       </c>
-      <c r="F67" s="147" t="n">
+      <c r="F67" s="161" t="n">
         <v>109.065347384034</v>
       </c>
-      <c r="G67" s="147" t="n">
+      <c r="G67" s="161" t="n">
         <v>395.444370297517</v>
       </c>
-      <c r="H67" s="147" t="n">
+      <c r="H67" s="161" t="n">
         <v>82.8881106492428</v>
       </c>
     </row>
@@ -6532,19 +7617,19 @@
       <c r="C68" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="147" t="n">
+      <c r="D68" s="161" t="n">
         <v>13.1244047484067</v>
       </c>
-      <c r="E68" s="147" t="n">
+      <c r="E68" s="161" t="n">
         <v>52.4498694007769</v>
       </c>
-      <c r="F68" s="147" t="n">
+      <c r="F68" s="161" t="n">
         <v>60.0832755431992</v>
       </c>
-      <c r="G68" s="147" t="n">
+      <c r="G68" s="161" t="n">
         <v>98.1542153959778</v>
       </c>
-      <c r="H68" s="147" t="n">
+      <c r="H68" s="161" t="n">
         <v>29.2904375718144</v>
       </c>
     </row>
@@ -6558,19 +7643,19 @@
       <c r="C69" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="147" t="n">
+      <c r="D69" s="161" t="n">
         <v>9.61769203083567</v>
       </c>
-      <c r="E69" s="147" t="n">
+      <c r="E69" s="161" t="n">
         <v>54.5470164464468</v>
       </c>
-      <c r="F69" s="147" t="n">
+      <c r="F69" s="161" t="n">
         <v>56.0398258682155</v>
       </c>
-      <c r="G69" s="147" t="n">
+      <c r="G69" s="161" t="n">
         <v>118.504219334165</v>
       </c>
-      <c r="H69" s="147" t="n">
+      <c r="H69" s="161" t="n">
         <v>28.3077952059338</v>
       </c>
     </row>
@@ -6584,19 +7669,19 @@
       <c r="C70" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="147" t="n">
+      <c r="D70" s="161" t="n">
         <v>21.077238908358</v>
       </c>
-      <c r="E70" s="147" t="n">
+      <c r="E70" s="161" t="n">
         <v>50.0102047246629</v>
       </c>
-      <c r="F70" s="147" t="n">
+      <c r="F70" s="161" t="n">
         <v>43.7378554572581</v>
       </c>
-      <c r="G70" s="147" t="n">
+      <c r="G70" s="161" t="n">
         <v>100.282102092048</v>
       </c>
-      <c r="H70" s="147" t="n">
+      <c r="H70" s="161" t="n">
         <v>22.4379703262046</v>
       </c>
     </row>
@@ -6610,19 +7695,19 @@
       <c r="C71" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="147" t="n">
+      <c r="D71" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E71" s="147" t="n">
+      <c r="E71" s="161" t="n">
         <v>18.012787701056</v>
       </c>
-      <c r="F71" s="147" t="n">
+      <c r="F71" s="161" t="n">
         <v>16.3973334638352</v>
       </c>
-      <c r="G71" s="147" t="n">
+      <c r="G71" s="161" t="n">
         <v>72.8989025980501</v>
       </c>
-      <c r="H71" s="147" t="n">
+      <c r="H71" s="161" t="n">
         <v>9.70328292375951</v>
       </c>
     </row>
@@ -6636,19 +7721,19 @@
       <c r="C72" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="147" t="n">
+      <c r="D72" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E72" s="147" t="n">
+      <c r="E72" s="161" t="n">
         <v>29.2439502423587</v>
       </c>
-      <c r="F72" s="147" t="n">
+      <c r="F72" s="161" t="n">
         <v>22.6384628453435</v>
       </c>
-      <c r="G72" s="147" t="n">
+      <c r="G72" s="161" t="n">
         <v>118.504219334165</v>
       </c>
-      <c r="H72" s="147" t="n">
+      <c r="H72" s="161" t="n">
         <v>21.8718680803626</v>
       </c>
     </row>
@@ -6662,19 +7747,19 @@
       <c r="C73" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="147" t="n">
+      <c r="D73" s="161" t="n">
         <v>7.0178344238091</v>
       </c>
-      <c r="E73" s="147" t="n">
+      <c r="E73" s="161" t="n">
         <v>13.9712706270674</v>
       </c>
-      <c r="F73" s="147" t="n">
+      <c r="F73" s="161" t="n">
         <v>9.21954445729289</v>
       </c>
-      <c r="G73" s="147" t="n">
+      <c r="G73" s="161" t="n">
         <v>32.5345969699949</v>
       </c>
-      <c r="H73" s="147" t="n">
+      <c r="H73" s="161" t="n">
         <v>8.95474901431924</v>
       </c>
     </row>
@@ -6688,19 +7773,19 @@
       <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="147" t="n">
+      <c r="D74" s="161" t="n">
         <v>5.59016994374947</v>
       </c>
-      <c r="E74" s="147" t="n">
+      <c r="E74" s="161" t="n">
         <v>17.5426542500489</v>
       </c>
-      <c r="F74" s="147" t="n">
+      <c r="F74" s="161" t="n">
         <v>15.4904172356124</v>
       </c>
-      <c r="G74" s="147" t="n">
+      <c r="G74" s="161" t="n">
         <v>54.6122696836526</v>
       </c>
-      <c r="H74" s="147" t="n">
+      <c r="H74" s="161" t="n">
         <v>9.54721851188307</v>
       </c>
     </row>
@@ -6714,19 +7799,19 @@
       <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="147" t="n">
+      <c r="D75" s="161" t="n">
         <v>7.56637297521078</v>
       </c>
-      <c r="E75" s="147" t="n">
+      <c r="E75" s="161" t="n">
         <v>19.8678968757841</v>
       </c>
-      <c r="F75" s="147" t="n">
+      <c r="F75" s="161" t="n">
         <v>22.3439029715043</v>
       </c>
-      <c r="G75" s="147" t="n">
+      <c r="G75" s="161" t="n">
         <v>30.6471858414439</v>
       </c>
-      <c r="H75" s="147" t="n">
+      <c r="H75" s="161" t="n">
         <v>6.98562565856009</v>
       </c>
     </row>
@@ -6740,19 +7825,19 @@
       <c r="C76" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="147" t="n">
+      <c r="D76" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E76" s="147" t="n">
+      <c r="E76" s="161" t="n">
         <v>17.0297586642185</v>
       </c>
-      <c r="F76" s="147" t="n">
+      <c r="F76" s="161" t="n">
         <v>15.6604597633658</v>
       </c>
-      <c r="G76" s="147" t="n">
+      <c r="G76" s="161" t="n">
         <v>47.7074417675063</v>
       </c>
-      <c r="H76" s="147" t="n">
+      <c r="H76" s="161" t="n">
         <v>8.32568926185773</v>
       </c>
     </row>
@@ -6766,19 +7851,19 @@
       <c r="C77" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="147" t="n">
+      <c r="D77" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E77" s="147" t="n">
+      <c r="E77" s="161" t="n">
         <v>17.2787820237464</v>
       </c>
-      <c r="F77" s="147" t="n">
+      <c r="F77" s="161" t="n">
         <v>16.140012391569</v>
       </c>
-      <c r="G77" s="147" t="n">
+      <c r="G77" s="161" t="n">
         <v>54.6122696836526</v>
       </c>
-      <c r="H77" s="147" t="n">
+      <c r="H77" s="161" t="n">
         <v>8.30241110068043</v>
       </c>
     </row>
@@ -6792,19 +7877,19 @@
       <c r="C78" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="147" t="n">
+      <c r="D78" s="161" t="n">
         <v>7.77817459305202</v>
       </c>
-      <c r="E78" s="147" t="n">
+      <c r="E78" s="161" t="n">
         <v>50.6131004638217</v>
       </c>
-      <c r="F78" s="147" t="n">
+      <c r="F78" s="161" t="n">
         <v>44.3001128666734</v>
       </c>
-      <c r="G78" s="147" t="n">
+      <c r="G78" s="161" t="n">
         <v>170.133036180514</v>
       </c>
-      <c r="H78" s="147" t="n">
+      <c r="H78" s="161" t="n">
         <v>39.1943621185066</v>
       </c>
     </row>
@@ -6818,19 +7903,19 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="147" t="n">
+      <c r="D79" s="161" t="n">
         <v>9.21954445729289</v>
       </c>
-      <c r="E79" s="147" t="n">
+      <c r="E79" s="161" t="n">
         <v>78.5819857972576</v>
       </c>
-      <c r="F79" s="147" t="n">
+      <c r="F79" s="161" t="n">
         <v>66.098411478643</v>
       </c>
-      <c r="G79" s="147" t="n">
+      <c r="G79" s="161" t="n">
         <v>192.705085558218</v>
       </c>
-      <c r="H79" s="147" t="n">
+      <c r="H79" s="161" t="n">
         <v>43.4270771903382</v>
       </c>
     </row>
@@ -6844,19 +7929,19 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="147" t="n">
+      <c r="D80" s="161" t="n">
         <v>6.70820393249937</v>
       </c>
-      <c r="E80" s="147" t="n">
+      <c r="E80" s="161" t="n">
         <v>60.5147232288679</v>
       </c>
-      <c r="F80" s="147" t="n">
+      <c r="F80" s="161" t="n">
         <v>56.0290103428572</v>
       </c>
-      <c r="G80" s="147" t="n">
+      <c r="G80" s="161" t="n">
         <v>173.560508180865</v>
       </c>
-      <c r="H80" s="147" t="n">
+      <c r="H80" s="161" t="n">
         <v>35.4567713981997</v>
       </c>
     </row>
@@ -6870,19 +7955,19 @@
       <c r="C81" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="147" t="n">
+      <c r="D81" s="161" t="n">
         <v>5.3851648071345</v>
       </c>
-      <c r="E81" s="147" t="n">
+      <c r="E81" s="161" t="n">
         <v>75.1285617358174</v>
       </c>
-      <c r="F81" s="147" t="n">
+      <c r="F81" s="161" t="n">
         <v>70.327803890069</v>
       </c>
-      <c r="G81" s="147" t="n">
+      <c r="G81" s="161" t="n">
         <v>181.053168986351</v>
       </c>
-      <c r="H81" s="147" t="n">
+      <c r="H81" s="161" t="n">
         <v>38.0467096330281</v>
       </c>
     </row>
@@ -6896,19 +7981,19 @@
       <c r="C82" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="147" t="n">
+      <c r="D82" s="161" t="n">
         <v>4.27200187265877</v>
       </c>
-      <c r="E82" s="147" t="n">
+      <c r="E82" s="161" t="n">
         <v>64.4041502002458</v>
       </c>
-      <c r="F82" s="147" t="n">
+      <c r="F82" s="161" t="n">
         <v>57.4673820527784</v>
       </c>
-      <c r="G82" s="147" t="n">
+      <c r="G82" s="161" t="n">
         <v>219.424816281113</v>
       </c>
-      <c r="H82" s="147" t="n">
+      <c r="H82" s="161" t="n">
         <v>38.0636558186827</v>
       </c>
     </row>
@@ -6922,19 +8007,19 @@
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="147" t="n">
+      <c r="D83" s="161" t="n">
         <v>9.21954445729289</v>
       </c>
-      <c r="E83" s="147" t="n">
+      <c r="E83" s="161" t="n">
         <v>69.7835576832479</v>
       </c>
-      <c r="F83" s="147" t="n">
+      <c r="F83" s="161" t="n">
         <v>74.6697410577348</v>
       </c>
-      <c r="G83" s="147" t="n">
+      <c r="G83" s="161" t="n">
         <v>130.613934938046</v>
       </c>
-      <c r="H83" s="147" t="n">
+      <c r="H83" s="161" t="n">
         <v>28.4613070151213</v>
       </c>
     </row>
@@ -6948,19 +8033,19 @@
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="147" t="n">
+      <c r="D84" s="161" t="n">
         <v>6.08276253029822</v>
       </c>
-      <c r="E84" s="147" t="n">
+      <c r="E84" s="161" t="n">
         <v>46.1110468922943</v>
       </c>
-      <c r="F84" s="147" t="n">
+      <c r="F84" s="161" t="n">
         <v>47.6707457462121</v>
       </c>
-      <c r="G84" s="147" t="n">
+      <c r="G84" s="161" t="n">
         <v>200.911049969881</v>
       </c>
-      <c r="H84" s="147" t="n">
+      <c r="H84" s="161" t="n">
         <v>33.7648862538917</v>
       </c>
     </row>
@@ -6974,19 +8059,19 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="147" t="n">
+      <c r="D85" s="161" t="n">
         <v>7.5</v>
       </c>
-      <c r="E85" s="147" t="n">
+      <c r="E85" s="161" t="n">
         <v>55.6608526614151</v>
       </c>
-      <c r="F85" s="147" t="n">
+      <c r="F85" s="161" t="n">
         <v>53.0495051814812</v>
       </c>
-      <c r="G85" s="147" t="n">
+      <c r="G85" s="161" t="n">
         <v>135.59129765586</v>
       </c>
-      <c r="H85" s="147" t="n">
+      <c r="H85" s="161" t="n">
         <v>32.5554430260798</v>
       </c>
     </row>
@@ -7000,19 +8085,19 @@
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="147" t="n">
+      <c r="D86" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E86" s="147" t="n">
+      <c r="E86" s="161" t="n">
         <v>56.2045940019495</v>
       </c>
-      <c r="F86" s="147" t="n">
+      <c r="F86" s="161" t="n">
         <v>55.4098366718401</v>
       </c>
-      <c r="G86" s="147" t="n">
+      <c r="G86" s="161" t="n">
         <v>112.482220817336</v>
       </c>
-      <c r="H86" s="147" t="n">
+      <c r="H86" s="161" t="n">
         <v>26.0867621091253</v>
       </c>
     </row>
@@ -7026,19 +8111,19 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="147" t="n">
+      <c r="D87" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E87" s="147" t="n">
+      <c r="E87" s="161" t="n">
         <v>59.1309515488561</v>
       </c>
-      <c r="F87" s="147" t="n">
+      <c r="F87" s="161" t="n">
         <v>55.4909902596809</v>
       </c>
-      <c r="G87" s="147" t="n">
+      <c r="G87" s="161" t="n">
         <v>200.911049969881</v>
       </c>
-      <c r="H87" s="147" t="n">
+      <c r="H87" s="161" t="n">
         <v>31.728858997997</v>
       </c>
     </row>
@@ -7052,19 +8137,19 @@
       <c r="C88" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="147" t="n">
+      <c r="D88" s="161" t="n">
         <v>6.70820393249937</v>
       </c>
-      <c r="E88" s="147" t="n">
+      <c r="E88" s="161" t="n">
         <v>51.0015877487911</v>
       </c>
-      <c r="F88" s="147" t="n">
+      <c r="F88" s="161" t="n">
         <v>47.9890098290407</v>
       </c>
-      <c r="G88" s="147" t="n">
+      <c r="G88" s="161" t="n">
         <v>104.216121593542</v>
       </c>
-      <c r="H88" s="147" t="n">
+      <c r="H88" s="161" t="n">
         <v>27.9891204647479</v>
       </c>
     </row>
@@ -7078,19 +8163,19 @@
       <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="147" t="n">
+      <c r="D89" s="161" t="n">
         <v>7.5</v>
       </c>
-      <c r="E89" s="147" t="n">
+      <c r="E89" s="161" t="n">
         <v>59.2629847635528</v>
       </c>
-      <c r="F89" s="147" t="n">
+      <c r="F89" s="161" t="n">
         <v>53.0495051814812</v>
       </c>
-      <c r="G89" s="147" t="n">
+      <c r="G89" s="161" t="n">
         <v>148.765755468118</v>
       </c>
-      <c r="H89" s="147" t="n">
+      <c r="H89" s="161" t="n">
         <v>33.7138242792204</v>
       </c>
     </row>
@@ -7104,19 +8189,19 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="147" t="n">
+      <c r="D90" s="161" t="n">
         <v>13.9014387744578</v>
       </c>
-      <c r="E90" s="147" t="n">
+      <c r="E90" s="161" t="n">
         <v>55.3861110334696</v>
       </c>
-      <c r="F90" s="147" t="n">
+      <c r="F90" s="161" t="n">
         <v>52.0024037905941</v>
       </c>
-      <c r="G90" s="147" t="n">
+      <c r="G90" s="161" t="n">
         <v>112.198484838254</v>
       </c>
-      <c r="H90" s="147" t="n">
+      <c r="H90" s="161" t="n">
         <v>25.6243298191376</v>
       </c>
     </row>
@@ -7130,19 +8215,19 @@
       <c r="C91" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="147" t="n">
+      <c r="D91" s="161" t="n">
         <v>7</v>
       </c>
-      <c r="E91" s="147" t="n">
+      <c r="E91" s="161" t="n">
         <v>71.6141353663054</v>
       </c>
-      <c r="F91" s="147" t="n">
+      <c r="F91" s="161" t="n">
         <v>65.7647321898295</v>
       </c>
-      <c r="G91" s="147" t="n">
+      <c r="G91" s="161" t="n">
         <v>158.52602310031</v>
       </c>
-      <c r="H91" s="147" t="n">
+      <c r="H91" s="161" t="n">
         <v>33.664180425713</v>
       </c>
     </row>
@@ -7156,19 +8241,19 @@
       <c r="C92" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="147" t="n">
+      <c r="D92" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E92" s="147" t="n">
+      <c r="E92" s="161" t="n">
         <v>56.6794447982244</v>
       </c>
-      <c r="F92" s="147" t="n">
+      <c r="F92" s="161" t="n">
         <v>51.0881590977792</v>
       </c>
-      <c r="G92" s="147" t="n">
+      <c r="G92" s="161" t="n">
         <v>158.52602310031</v>
       </c>
-      <c r="H92" s="147" t="n">
+      <c r="H92" s="161" t="n">
         <v>32.3777049801092</v>
       </c>
     </row>
@@ -7182,19 +8267,19 @@
       <c r="C93" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="147" t="n">
+      <c r="D93" s="161" t="n">
         <v>5.3851648071345</v>
       </c>
-      <c r="E93" s="147" t="n">
+      <c r="E93" s="161" t="n">
         <v>42.8026646386311</v>
       </c>
-      <c r="F93" s="147" t="n">
+      <c r="F93" s="161" t="n">
         <v>35.0224023431901</v>
       </c>
-      <c r="G93" s="147" t="n">
+      <c r="G93" s="161" t="n">
         <v>110.721497460972</v>
       </c>
-      <c r="H93" s="147" t="n">
+      <c r="H93" s="161" t="n">
         <v>25.6059603200329</v>
       </c>
     </row>
@@ -7208,19 +8293,19 @@
       <c r="C94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="147" t="n">
+      <c r="D94" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E94" s="147" t="n">
+      <c r="E94" s="161" t="n">
         <v>41.4581373271614</v>
       </c>
-      <c r="F94" s="147" t="n">
+      <c r="F94" s="161" t="n">
         <v>35.9339672176619</v>
       </c>
-      <c r="G94" s="147" t="n">
+      <c r="G94" s="161" t="n">
         <v>106.230880632705</v>
       </c>
-      <c r="H94" s="147" t="n">
+      <c r="H94" s="161" t="n">
         <v>24.0368099003368</v>
       </c>
     </row>
@@ -7234,19 +8319,19 @@
       <c r="C95" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="147" t="n">
+      <c r="D95" s="161" t="n">
         <v>7</v>
       </c>
-      <c r="E95" s="147" t="n">
+      <c r="E95" s="161" t="n">
         <v>55.2045682764406</v>
       </c>
-      <c r="F95" s="147" t="n">
+      <c r="F95" s="161" t="n">
         <v>51.6551062335564</v>
       </c>
-      <c r="G95" s="147" t="n">
+      <c r="G95" s="161" t="n">
         <v>158.764763093074</v>
       </c>
-      <c r="H95" s="147" t="n">
+      <c r="H95" s="161" t="n">
         <v>33.9103930121733</v>
       </c>
     </row>
@@ -7260,19 +8345,19 @@
       <c r="C96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="147" t="n">
+      <c r="D96" s="161" t="n">
         <v>5.8309518948453</v>
       </c>
-      <c r="E96" s="147" t="n">
+      <c r="E96" s="161" t="n">
         <v>21.876580681713</v>
       </c>
-      <c r="F96" s="147" t="n">
+      <c r="F96" s="161" t="n">
         <v>16.0312195418814</v>
       </c>
-      <c r="G96" s="147" t="n">
+      <c r="G96" s="161" t="n">
         <v>98.2356859801976</v>
       </c>
-      <c r="H96" s="147" t="n">
+      <c r="H96" s="161" t="n">
         <v>17.2671944399136</v>
       </c>
     </row>
@@ -7286,19 +8371,19 @@
       <c r="C97" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="147" t="n">
+      <c r="D97" s="161" t="n">
         <v>4.7169905660283</v>
       </c>
-      <c r="E97" s="147" t="n">
+      <c r="E97" s="161" t="n">
         <v>43.782339783328</v>
       </c>
-      <c r="F97" s="147" t="n">
+      <c r="F97" s="161" t="n">
         <v>38.6167062292993</v>
       </c>
-      <c r="G97" s="147" t="n">
+      <c r="G97" s="161" t="n">
         <v>158.764763093074</v>
       </c>
-      <c r="H97" s="147" t="n">
+      <c r="H97" s="161" t="n">
         <v>28.1299915802913</v>
       </c>
     </row>
@@ -7312,19 +8397,19 @@
       <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="147" t="n">
+      <c r="D98" s="161" t="n">
         <v>4.27200187265877</v>
       </c>
-      <c r="E98" s="147" t="n">
+      <c r="E98" s="161" t="n">
         <v>13.7654980425269</v>
       </c>
-      <c r="F98" s="147" t="n">
+      <c r="F98" s="161" t="n">
         <v>13.5321912632859</v>
       </c>
-      <c r="G98" s="147" t="n">
+      <c r="G98" s="161" t="n">
         <v>31.004031995855</v>
       </c>
-      <c r="H98" s="147" t="n">
+      <c r="H98" s="161" t="n">
         <v>6.58314666721239</v>
       </c>
     </row>
@@ -7338,19 +8423,19 @@
       <c r="C99" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="147" t="n">
+      <c r="D99" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E99" s="147" t="n">
+      <c r="E99" s="161" t="n">
         <v>16.5589444441889</v>
       </c>
-      <c r="F99" s="147" t="n">
+      <c r="F99" s="161" t="n">
         <v>15.0332963783729</v>
       </c>
-      <c r="G99" s="147" t="n">
+      <c r="G99" s="161" t="n">
         <v>38.5129848233034</v>
       </c>
-      <c r="H99" s="147" t="n">
+      <c r="H99" s="161" t="n">
         <v>8.1277640350327</v>
       </c>
     </row>
@@ -7364,19 +8449,19 @@
       <c r="C100" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="147" t="n">
+      <c r="D100" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E100" s="147" t="n">
+      <c r="E100" s="161" t="n">
         <v>12.0342530876629</v>
       </c>
-      <c r="F100" s="147" t="n">
+      <c r="F100" s="161" t="n">
         <v>12.5099960031968</v>
       </c>
-      <c r="G100" s="147" t="n">
+      <c r="G100" s="161" t="n">
         <v>29.9541316015003</v>
       </c>
-      <c r="H100" s="147" t="n">
+      <c r="H100" s="161" t="n">
         <v>5.50138961304473</v>
       </c>
     </row>
@@ -7390,19 +8475,19 @@
       <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="147" t="n">
+      <c r="D101" s="161" t="n">
         <v>4.7169905660283</v>
       </c>
-      <c r="E101" s="147" t="n">
+      <c r="E101" s="161" t="n">
         <v>14.847644922073</v>
       </c>
-      <c r="F101" s="147" t="n">
+      <c r="F101" s="161" t="n">
         <v>13.2003787824441</v>
       </c>
-      <c r="G101" s="147" t="n">
+      <c r="G101" s="161" t="n">
         <v>46.2385120867876</v>
       </c>
-      <c r="H101" s="147" t="n">
+      <c r="H101" s="161" t="n">
         <v>7.45410654979148</v>
       </c>
     </row>
@@ -7416,19 +8501,19 @@
       <c r="C102" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="147" t="n">
+      <c r="D102" s="161" t="n">
         <v>3.16227766016838</v>
       </c>
-      <c r="E102" s="147" t="n">
+      <c r="E102" s="161" t="n">
         <v>14.4118978666959</v>
       </c>
-      <c r="F102" s="147" t="n">
+      <c r="F102" s="161" t="n">
         <v>13.0862523283024</v>
       </c>
-      <c r="G102" s="147" t="n">
+      <c r="G102" s="161" t="n">
         <v>52.8866712887094</v>
       </c>
-      <c r="H102" s="147" t="n">
+      <c r="H102" s="161" t="n">
         <v>7.23084873418535</v>
       </c>
     </row>
@@ -7442,19 +8527,19 @@
       <c r="C103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="147" t="n">
+      <c r="D103" s="161" t="n">
         <v>4.30116263352131</v>
       </c>
-      <c r="E103" s="147" t="n">
+      <c r="E103" s="161" t="n">
         <v>59.6160613733532</v>
       </c>
-      <c r="F103" s="147" t="n">
+      <c r="F103" s="161" t="n">
         <v>56.8000880281008</v>
       </c>
-      <c r="G103" s="147" t="n">
+      <c r="G103" s="161" t="n">
         <v>176.440499885939</v>
       </c>
-      <c r="H103" s="147" t="n">
+      <c r="H103" s="161" t="n">
         <v>43.3660489735178</v>
       </c>
     </row>
@@ -7468,19 +8553,19 @@
       <c r="C104" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="147" t="n">
+      <c r="D104" s="161" t="n">
         <v>30.8058436014987</v>
       </c>
-      <c r="E104" s="147" t="n">
+      <c r="E104" s="161" t="n">
         <v>85.355107001402</v>
       </c>
-      <c r="F104" s="147" t="n">
+      <c r="F104" s="161" t="n">
         <v>88.0511215147201</v>
       </c>
-      <c r="G104" s="147" t="n">
+      <c r="G104" s="161" t="n">
         <v>156.020030765283</v>
       </c>
-      <c r="H104" s="147" t="n">
+      <c r="H104" s="161" t="n">
         <v>33.6189125293658</v>
       </c>
     </row>
@@ -7494,19 +8579,19 @@
       <c r="C105" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="147" t="n">
+      <c r="D105" s="161" t="n">
         <v>13.1244047484067</v>
       </c>
-      <c r="E105" s="147" t="n">
+      <c r="E105" s="161" t="n">
         <v>71.6852835566062</v>
       </c>
-      <c r="F105" s="147" t="n">
+      <c r="F105" s="161" t="n">
         <v>68.116724776351</v>
       </c>
-      <c r="G105" s="147" t="n">
+      <c r="G105" s="161" t="n">
         <v>144.039057203246</v>
       </c>
-      <c r="H105" s="147" t="n">
+      <c r="H105" s="161" t="n">
         <v>37.5217287521599</v>
       </c>
     </row>
@@ -7520,19 +8605,19 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="147" t="n">
+      <c r="D106" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E106" s="147" t="n">
+      <c r="E106" s="161" t="n">
         <v>75.0333550910796</v>
       </c>
-      <c r="F106" s="147" t="n">
+      <c r="F106" s="161" t="n">
         <v>69.3761481298948</v>
       </c>
-      <c r="G106" s="147" t="n">
+      <c r="G106" s="161" t="n">
         <v>253.282944550161</v>
       </c>
-      <c r="H106" s="147" t="n">
+      <c r="H106" s="161" t="n">
         <v>41.828205077748</v>
       </c>
     </row>
@@ -7546,19 +8631,19 @@
       <c r="C107" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="147" t="n">
+      <c r="D107" s="161" t="n">
         <v>4.30116263352131</v>
       </c>
-      <c r="E107" s="147" t="n">
+      <c r="E107" s="161" t="n">
         <v>68.9778084954295</v>
       </c>
-      <c r="F107" s="147" t="n">
+      <c r="F107" s="161" t="n">
         <v>63.7906732994722</v>
       </c>
-      <c r="G107" s="147" t="n">
+      <c r="G107" s="161" t="n">
         <v>253.282944550161</v>
       </c>
-      <c r="H107" s="147" t="n">
+      <c r="H107" s="161" t="n">
         <v>39.6917027000357</v>
       </c>
     </row>
@@ -7572,19 +8657,19 @@
       <c r="C108" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="147" t="n">
+      <c r="D108" s="161" t="n">
         <v>30.8058436014987</v>
       </c>
-      <c r="E108" s="147" t="n">
+      <c r="E108" s="161" t="n">
         <v>136.746468393327</v>
       </c>
-      <c r="F108" s="147" t="n">
+      <c r="F108" s="161" t="n">
         <v>140.650275506307</v>
       </c>
-      <c r="G108" s="147" t="n">
+      <c r="G108" s="161" t="n">
         <v>254.244960618692</v>
       </c>
-      <c r="H108" s="147" t="n">
+      <c r="H108" s="161" t="n">
         <v>51.1718179470903</v>
       </c>
     </row>
@@ -7598,19 +8683,19 @@
       <c r="C109" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="147" t="n">
+      <c r="D109" s="161" t="n">
         <v>10.3077640640442</v>
       </c>
-      <c r="E109" s="147" t="n">
+      <c r="E109" s="161" t="n">
         <v>136.475237984334</v>
       </c>
-      <c r="F109" s="147" t="n">
+      <c r="F109" s="161" t="n">
         <v>106.668880185366</v>
       </c>
-      <c r="G109" s="147" t="n">
+      <c r="G109" s="161" t="n">
         <v>349.858900129752</v>
       </c>
-      <c r="H109" s="147" t="n">
+      <c r="H109" s="161" t="n">
         <v>110.76579056203</v>
       </c>
     </row>
@@ -7624,19 +8709,19 @@
       <c r="C110" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="147" t="n">
+      <c r="D110" s="161" t="n">
         <v>24.0052077683156</v>
       </c>
-      <c r="E110" s="147" t="n">
+      <c r="E110" s="161" t="n">
         <v>141.738902224587</v>
       </c>
-      <c r="F110" s="147" t="n">
+      <c r="F110" s="161" t="n">
         <v>175.70771339393</v>
       </c>
-      <c r="G110" s="147" t="n">
+      <c r="G110" s="161" t="n">
         <v>240.19679431666</v>
       </c>
-      <c r="H110" s="147" t="n">
+      <c r="H110" s="161" t="n">
         <v>71.4952712262036</v>
       </c>
     </row>
@@ -7650,19 +8735,19 @@
       <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="147" t="n">
+      <c r="D111" s="161" t="n">
         <v>12.1655250605964</v>
       </c>
-      <c r="E111" s="147" t="n">
+      <c r="E111" s="161" t="n">
         <v>133.557389761174</v>
       </c>
-      <c r="F111" s="147" t="n">
+      <c r="F111" s="161" t="n">
         <v>134.997684402427</v>
       </c>
-      <c r="G111" s="147" t="n">
+      <c r="G111" s="161" t="n">
         <v>278.352294763309</v>
       </c>
-      <c r="H111" s="147" t="n">
+      <c r="H111" s="161" t="n">
         <v>55.8953664208053</v>
       </c>
     </row>
@@ -7676,19 +8761,19 @@
       <c r="C112" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="147" t="n">
+      <c r="D112" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E112" s="147" t="n">
+      <c r="E112" s="161" t="n">
         <v>128.673775572317</v>
       </c>
-      <c r="F112" s="147" t="n">
+      <c r="F112" s="161" t="n">
         <v>130.123979342779</v>
       </c>
-      <c r="G112" s="147" t="n">
+      <c r="G112" s="161" t="n">
         <v>349.858900129752</v>
       </c>
-      <c r="H112" s="147" t="n">
+      <c r="H112" s="161" t="n">
         <v>57.930083176844</v>
       </c>
     </row>
@@ -7702,19 +8787,19 @@
       <c r="C113" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="147" t="n">
+      <c r="D113" s="161" t="n">
         <v>13.1244047484067</v>
       </c>
-      <c r="E113" s="147" t="n">
+      <c r="E113" s="161" t="n">
         <v>111.461838555989</v>
       </c>
-      <c r="F113" s="147" t="n">
+      <c r="F113" s="161" t="n">
         <v>104.169333299201</v>
       </c>
-      <c r="G113" s="147" t="n">
+      <c r="G113" s="161" t="n">
         <v>238.287641307727</v>
       </c>
-      <c r="H113" s="147" t="n">
+      <c r="H113" s="161" t="n">
         <v>55.0446474130599</v>
       </c>
     </row>
@@ -7728,19 +8813,19 @@
       <c r="C114" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="147" t="n">
+      <c r="D114" s="161" t="n">
         <v>24.0052077683156</v>
       </c>
-      <c r="E114" s="147" t="n">
+      <c r="E114" s="161" t="n">
         <v>86.1728008864928</v>
       </c>
-      <c r="F114" s="147" t="n">
+      <c r="F114" s="161" t="n">
         <v>65.8729838401146</v>
       </c>
-      <c r="G114" s="147" t="n">
+      <c r="G114" s="161" t="n">
         <v>193.331321828616</v>
       </c>
-      <c r="H114" s="147" t="n">
+      <c r="H114" s="161" t="n">
         <v>57.2339342183861</v>
       </c>
     </row>
@@ -7754,19 +8839,19 @@
       <c r="C115" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="147" t="n">
+      <c r="D115" s="161" t="n">
         <v>19.1049731745428</v>
       </c>
-      <c r="E115" s="147" t="n">
+      <c r="E115" s="161" t="n">
         <v>109.655428595</v>
       </c>
-      <c r="F115" s="147" t="n">
+      <c r="F115" s="161" t="n">
         <v>63.0474227021417</v>
       </c>
-      <c r="G115" s="147" t="n">
+      <c r="G115" s="161" t="n">
         <v>310.150366757803</v>
       </c>
-      <c r="H115" s="147" t="n">
+      <c r="H115" s="161" t="n">
         <v>101.872213966565</v>
       </c>
     </row>
@@ -7780,19 +8865,19 @@
       <c r="C116" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="147" t="n">
+      <c r="D116" s="161" t="n">
         <v>13.6565002837477</v>
       </c>
-      <c r="E116" s="147" t="n">
+      <c r="E116" s="161" t="n">
         <v>104.816538842174</v>
       </c>
-      <c r="F116" s="147" t="n">
+      <c r="F116" s="161" t="n">
         <v>108.259269603092</v>
       </c>
-      <c r="G116" s="147" t="n">
+      <c r="G116" s="161" t="n">
         <v>259.311588634214</v>
       </c>
-      <c r="H116" s="147" t="n">
+      <c r="H116" s="161" t="n">
         <v>47.8643931383006</v>
       </c>
     </row>
@@ -7806,19 +8891,19 @@
       <c r="C117" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="147" t="n">
+      <c r="D117" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E117" s="147" t="n">
+      <c r="E117" s="161" t="n">
         <v>96.1773475578184</v>
       </c>
-      <c r="F117" s="147" t="n">
+      <c r="F117" s="161" t="n">
         <v>92.6093947718049</v>
       </c>
-      <c r="G117" s="147" t="n">
+      <c r="G117" s="161" t="n">
         <v>310.150366757803</v>
       </c>
-      <c r="H117" s="147" t="n">
+      <c r="H117" s="161" t="n">
         <v>52.5231994501619</v>
       </c>
     </row>
@@ -7832,19 +8917,19 @@
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="147" t="n">
+      <c r="D118" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E118" s="147" t="n">
+      <c r="E118" s="161" t="n">
         <v>37.3648739293458</v>
       </c>
-      <c r="F118" s="147" t="n">
+      <c r="F118" s="161" t="n">
         <v>35.4295074761137</v>
       </c>
-      <c r="G118" s="147" t="n">
+      <c r="G118" s="161" t="n">
         <v>86.3669496972077</v>
       </c>
-      <c r="H118" s="147" t="n">
+      <c r="H118" s="161" t="n">
         <v>22.1653657156857</v>
       </c>
     </row>
@@ -7858,19 +8943,19 @@
       <c r="C119" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="147" t="n">
+      <c r="D119" s="161" t="n">
         <v>12.1655250605964</v>
       </c>
-      <c r="E119" s="147" t="n">
+      <c r="E119" s="161" t="n">
         <v>45.0130852956437</v>
       </c>
-      <c r="F119" s="147" t="n">
+      <c r="F119" s="161" t="n">
         <v>37.1079506305589</v>
       </c>
-      <c r="G119" s="147" t="n">
+      <c r="G119" s="161" t="n">
         <v>78.3342198531395</v>
       </c>
-      <c r="H119" s="147" t="n">
+      <c r="H119" s="161" t="n">
         <v>22.1332186404014</v>
       </c>
     </row>
@@ -7884,19 +8969,19 @@
       <c r="C120" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="147" t="n">
+      <c r="D120" s="161" t="n">
         <v>13.6565002837477</v>
       </c>
-      <c r="E120" s="147" t="n">
+      <c r="E120" s="161" t="n">
         <v>53.6476288622473</v>
       </c>
-      <c r="F120" s="147" t="n">
+      <c r="F120" s="161" t="n">
         <v>38.6575990516185</v>
       </c>
-      <c r="G120" s="147" t="n">
+      <c r="G120" s="161" t="n">
         <v>119.65471156624</v>
       </c>
-      <c r="H120" s="147" t="n">
+      <c r="H120" s="161" t="n">
         <v>34.8144446984584</v>
       </c>
     </row>
@@ -7910,19 +8995,19 @@
       <c r="C121" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="147" t="n">
+      <c r="D121" s="161" t="n">
         <v>5.85234995535981</v>
       </c>
-      <c r="E121" s="147" t="n">
+      <c r="E121" s="161" t="n">
         <v>31.4384851807393</v>
       </c>
-      <c r="F121" s="147" t="n">
+      <c r="F121" s="161" t="n">
         <v>25.020897805733</v>
       </c>
-      <c r="G121" s="147" t="n">
+      <c r="G121" s="161" t="n">
         <v>142.311278541091</v>
       </c>
-      <c r="H121" s="147" t="n">
+      <c r="H121" s="161" t="n">
         <v>22.0498905906967</v>
       </c>
     </row>
@@ -7936,19 +9021,19 @@
       <c r="C122" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="147" t="n">
+      <c r="D122" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E122" s="147" t="n">
+      <c r="E122" s="161" t="n">
         <v>41.0304194089337</v>
       </c>
-      <c r="F122" s="147" t="n">
+      <c r="F122" s="161" t="n">
         <v>36.2801598673435</v>
       </c>
-      <c r="G122" s="147" t="n">
+      <c r="G122" s="161" t="n">
         <v>142.311278541091</v>
       </c>
-      <c r="H122" s="147" t="n">
+      <c r="H122" s="161" t="n">
         <v>24.7325337356753</v>
       </c>
     </row>
@@ -7962,19 +9047,19 @@
       <c r="C123" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="147" t="n">
+      <c r="D123" s="161" t="n">
         <v>4.30116263352131</v>
       </c>
-      <c r="E123" s="147" t="n">
+      <c r="E123" s="161" t="n">
         <v>17.6554615223591</v>
       </c>
-      <c r="F123" s="147" t="n">
+      <c r="F123" s="161" t="n">
         <v>14.3265487818944</v>
       </c>
-      <c r="G123" s="147" t="n">
+      <c r="G123" s="161" t="n">
         <v>46.4004310324807</v>
       </c>
-      <c r="H123" s="147" t="n">
+      <c r="H123" s="161" t="n">
         <v>11.0695843818273</v>
       </c>
     </row>
@@ -7988,19 +9073,19 @@
       <c r="C124" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="147" t="n">
+      <c r="D124" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E124" s="147" t="n">
+      <c r="E124" s="161" t="n">
         <v>17.6372474625674</v>
       </c>
-      <c r="F124" s="147" t="n">
+      <c r="F124" s="161" t="n">
         <v>20.6155281280883</v>
       </c>
-      <c r="G124" s="147" t="n">
+      <c r="G124" s="161" t="n">
         <v>25.1097590589794</v>
       </c>
-      <c r="H124" s="147" t="n">
+      <c r="H124" s="161" t="n">
         <v>7.38378305061674</v>
       </c>
     </row>
@@ -8014,19 +9099,19 @@
       <c r="C125" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="147" t="n">
+      <c r="D125" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E125" s="147" t="n">
+      <c r="E125" s="161" t="n">
         <v>18.1161996271809</v>
       </c>
-      <c r="F125" s="147" t="n">
+      <c r="F125" s="161" t="n">
         <v>17.398664000509</v>
       </c>
-      <c r="G125" s="147" t="n">
+      <c r="G125" s="161" t="n">
         <v>39.293765408777</v>
       </c>
-      <c r="H125" s="147" t="n">
+      <c r="H125" s="161" t="n">
         <v>9.43151662442708</v>
       </c>
     </row>
@@ -8040,19 +9125,19 @@
       <c r="C126" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="147" t="n">
+      <c r="D126" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E126" s="147" t="n">
+      <c r="E126" s="161" t="n">
         <v>18.9278762260118</v>
       </c>
-      <c r="F126" s="147" t="n">
+      <c r="F126" s="161" t="n">
         <v>18.3371208208922</v>
       </c>
-      <c r="G126" s="147" t="n">
+      <c r="G126" s="161" t="n">
         <v>61.0327780786685</v>
       </c>
-      <c r="H126" s="147" t="n">
+      <c r="H126" s="161" t="n">
         <v>9.99192409090063</v>
       </c>
     </row>
@@ -8066,19 +9151,19 @@
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="147" t="n">
+      <c r="D127" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E127" s="147" t="n">
+      <c r="E127" s="161" t="n">
         <v>17.1597065532424</v>
       </c>
-      <c r="F127" s="147" t="n">
+      <c r="F127" s="161" t="n">
         <v>15.7003184681076</v>
       </c>
-      <c r="G127" s="147" t="n">
+      <c r="G127" s="161" t="n">
         <v>61.0327780786685</v>
       </c>
-      <c r="H127" s="147" t="n">
+      <c r="H127" s="161" t="n">
         <v>9.09710913949103</v>
       </c>
     </row>
@@ -8092,19 +9177,19 @@
       <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="147" t="n">
+      <c r="D128" s="161" t="n">
         <v>7.07106781186548</v>
       </c>
-      <c r="E128" s="147" t="n">
+      <c r="E128" s="161" t="n">
         <v>73.5683104559161</v>
       </c>
-      <c r="F128" s="147" t="n">
+      <c r="F128" s="161" t="n">
         <v>58.1055074842308</v>
       </c>
-      <c r="G128" s="147" t="n">
+      <c r="G128" s="161" t="n">
         <v>208.041462213665</v>
       </c>
-      <c r="H128" s="147" t="n">
+      <c r="H128" s="161" t="n">
         <v>61.0459718808199</v>
       </c>
     </row>
@@ -8118,19 +9203,19 @@
       <c r="C129" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="147" t="n">
+      <c r="D129" s="161" t="n">
         <v>22.5</v>
       </c>
-      <c r="E129" s="147" t="n">
+      <c r="E129" s="161" t="n">
         <v>96.1531535192704</v>
       </c>
-      <c r="F129" s="147" t="n">
+      <c r="F129" s="161" t="n">
         <v>82.9472724084403</v>
       </c>
-      <c r="G129" s="147" t="n">
+      <c r="G129" s="161" t="n">
         <v>216.806941770784</v>
       </c>
-      <c r="H129" s="147" t="n">
+      <c r="H129" s="161" t="n">
         <v>55.7613550120774</v>
       </c>
     </row>
@@ -8144,19 +9229,19 @@
       <c r="C130" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="147" t="n">
+      <c r="D130" s="161" t="n">
         <v>14.3265487818944</v>
       </c>
-      <c r="E130" s="147" t="n">
+      <c r="E130" s="161" t="n">
         <v>95.9015713207375</v>
       </c>
-      <c r="F130" s="147" t="n">
+      <c r="F130" s="161" t="n">
         <v>99.3340324360186</v>
       </c>
-      <c r="G130" s="147" t="n">
+      <c r="G130" s="161" t="n">
         <v>175.668010747546</v>
       </c>
-      <c r="H130" s="147" t="n">
+      <c r="H130" s="161" t="n">
         <v>41.8899739680199</v>
       </c>
     </row>
@@ -8170,19 +9255,19 @@
       <c r="C131" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="147" t="n">
+      <c r="D131" s="161" t="n">
         <v>8.94427190999916</v>
       </c>
-      <c r="E131" s="147" t="n">
+      <c r="E131" s="161" t="n">
         <v>108.700890511834</v>
       </c>
-      <c r="F131" s="147" t="n">
+      <c r="F131" s="161" t="n">
         <v>91.8177542744321</v>
       </c>
-      <c r="G131" s="147" t="n">
+      <c r="G131" s="161" t="n">
         <v>304.394891547148</v>
       </c>
-      <c r="H131" s="147" t="n">
+      <c r="H131" s="161" t="n">
         <v>66.0691497340918</v>
       </c>
     </row>
@@ -8196,19 +9281,19 @@
       <c r="C132" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="147" t="n">
+      <c r="D132" s="161" t="n">
         <v>5.85234995535981</v>
       </c>
-      <c r="E132" s="147" t="n">
+      <c r="E132" s="161" t="n">
         <v>94.4230630396738</v>
       </c>
-      <c r="F132" s="147" t="n">
+      <c r="F132" s="161" t="n">
         <v>82.8152012447456</v>
       </c>
-      <c r="G132" s="147" t="n">
+      <c r="G132" s="161" t="n">
         <v>336.634074329976</v>
       </c>
-      <c r="H132" s="147" t="n">
+      <c r="H132" s="161" t="n">
         <v>59.1099676189742</v>
       </c>
     </row>
@@ -8222,19 +9307,19 @@
       <c r="C133" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="147" t="n">
+      <c r="D133" s="161" t="n">
         <v>22.5</v>
       </c>
-      <c r="E133" s="147" t="n">
+      <c r="E133" s="161" t="n">
         <v>71.4109496537041</v>
       </c>
-      <c r="F133" s="147" t="n">
+      <c r="F133" s="161" t="n">
         <v>56.2249944419739</v>
       </c>
-      <c r="G133" s="147" t="n">
+      <c r="G133" s="161" t="n">
         <v>176.009232712378</v>
       </c>
-      <c r="H133" s="147" t="n">
+      <c r="H133" s="161" t="n">
         <v>44.410765586629</v>
       </c>
     </row>
@@ -8248,19 +9333,19 @@
       <c r="C134" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="147" t="n">
+      <c r="D134" s="161" t="n">
         <v>5.1478150704935</v>
       </c>
-      <c r="E134" s="147" t="n">
+      <c r="E134" s="161" t="n">
         <v>44.1558586856075</v>
       </c>
-      <c r="F134" s="147" t="n">
+      <c r="F134" s="161" t="n">
         <v>30.5163890393343</v>
       </c>
-      <c r="G134" s="147" t="n">
+      <c r="G134" s="161" t="n">
         <v>163.942825399589</v>
       </c>
-      <c r="H134" s="147" t="n">
+      <c r="H134" s="161" t="n">
         <v>38.7576217329838</v>
       </c>
     </row>
@@ -8274,19 +9359,19 @@
       <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="147" t="n">
+      <c r="D135" s="161" t="n">
         <v>29.7405447159261</v>
       </c>
-      <c r="E135" s="147" t="n">
+      <c r="E135" s="161" t="n">
         <v>79.1031860170328</v>
       </c>
-      <c r="F135" s="147" t="n">
+      <c r="F135" s="161" t="n">
         <v>77.0211010048545</v>
       </c>
-      <c r="G135" s="147" t="n">
+      <c r="G135" s="161" t="n">
         <v>150.951151039003</v>
       </c>
-      <c r="H135" s="147" t="n">
+      <c r="H135" s="161" t="n">
         <v>29.690469181631</v>
       </c>
     </row>
@@ -8300,19 +9385,19 @@
       <c r="C136" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="147" t="n">
+      <c r="D136" s="161" t="n">
         <v>9.86154146165801</v>
       </c>
-      <c r="E136" s="147" t="n">
+      <c r="E136" s="161" t="n">
         <v>87.9151298968447</v>
       </c>
-      <c r="F136" s="147" t="n">
+      <c r="F136" s="161" t="n">
         <v>88.1320032678255</v>
       </c>
-      <c r="G136" s="147" t="n">
+      <c r="G136" s="161" t="n">
         <v>181.362206647361</v>
       </c>
-      <c r="H136" s="147" t="n">
+      <c r="H136" s="161" t="n">
         <v>40.3600141043479</v>
       </c>
     </row>
@@ -8326,19 +9411,19 @@
       <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="147" t="n">
+      <c r="D137" s="161" t="n">
         <v>5.1478150704935</v>
       </c>
-      <c r="E137" s="147" t="n">
+      <c r="E137" s="161" t="n">
         <v>72.1833924015523</v>
       </c>
-      <c r="F137" s="147" t="n">
+      <c r="F137" s="161" t="n">
         <v>66.0646019111881</v>
       </c>
-      <c r="G137" s="147" t="n">
+      <c r="G137" s="161" t="n">
         <v>181.362206647361</v>
       </c>
-      <c r="H137" s="147" t="n">
+      <c r="H137" s="161" t="n">
         <v>40.3136626950489</v>
       </c>
     </row>
@@ -8352,19 +9437,19 @@
       <c r="C138" t="s">
         <v>10</v>
       </c>
-      <c r="D138" s="147" t="n">
+      <c r="D138" s="161" t="n">
         <v>14.3265487818944</v>
       </c>
-      <c r="E138" s="147" t="n">
+      <c r="E138" s="161" t="n">
         <v>99.8503814543743</v>
       </c>
-      <c r="F138" s="147" t="n">
+      <c r="F138" s="161" t="n">
         <v>107.685885797536</v>
       </c>
-      <c r="G138" s="147" t="n">
+      <c r="G138" s="161" t="n">
         <v>159.875732992847</v>
       </c>
-      <c r="H138" s="147" t="n">
+      <c r="H138" s="161" t="n">
         <v>42.6264058358234</v>
       </c>
     </row>
@@ -8378,19 +9463,19 @@
       <c r="C139" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="147" t="n">
+      <c r="D139" s="161" t="n">
         <v>29.7405447159261</v>
       </c>
-      <c r="E139" s="147" t="n">
+      <c r="E139" s="161" t="n">
         <v>104.530541781758</v>
       </c>
-      <c r="F139" s="147" t="n">
+      <c r="F139" s="161" t="n">
         <v>94.4272206516744</v>
       </c>
-      <c r="G139" s="147" t="n">
+      <c r="G139" s="161" t="n">
         <v>238.02573390287</v>
       </c>
-      <c r="H139" s="147" t="n">
+      <c r="H139" s="161" t="n">
         <v>51.2779496137794</v>
       </c>
     </row>
@@ -8404,19 +9489,19 @@
       <c r="C140" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="147" t="n">
+      <c r="D140" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E140" s="147" t="n">
+      <c r="E140" s="161" t="n">
         <v>60.283692460172</v>
       </c>
-      <c r="F140" s="147" t="n">
+      <c r="F140" s="161" t="n">
         <v>50.062460986252</v>
       </c>
-      <c r="G140" s="147" t="n">
+      <c r="G140" s="161" t="n">
         <v>179.032120023196</v>
       </c>
-      <c r="H140" s="147" t="n">
+      <c r="H140" s="161" t="n">
         <v>51.9924197872983</v>
       </c>
     </row>
@@ -8430,19 +9515,19 @@
       <c r="C141" t="s">
         <v>10</v>
       </c>
-      <c r="D141" s="147" t="n">
+      <c r="D141" s="161" t="n">
         <v>10.816653826392</v>
       </c>
-      <c r="E141" s="147" t="n">
+      <c r="E141" s="161" t="n">
         <v>108.772239902129</v>
       </c>
-      <c r="F141" s="147" t="n">
+      <c r="F141" s="161" t="n">
         <v>98.6559678884151</v>
       </c>
-      <c r="G141" s="147" t="n">
+      <c r="G141" s="161" t="n">
         <v>283.405186967352</v>
       </c>
-      <c r="H141" s="147" t="n">
+      <c r="H141" s="161" t="n">
         <v>56.6028698083658</v>
       </c>
     </row>
@@ -8456,19 +9541,19 @@
       <c r="C142" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="147" t="n">
+      <c r="D142" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E142" s="147" t="n">
+      <c r="E142" s="161" t="n">
         <v>94.8548007145076</v>
       </c>
-      <c r="F142" s="147" t="n">
+      <c r="F142" s="161" t="n">
         <v>85.9154905504211</v>
       </c>
-      <c r="G142" s="147" t="n">
+      <c r="G142" s="161" t="n">
         <v>298.90466707631</v>
       </c>
-      <c r="H142" s="147" t="n">
+      <c r="H142" s="161" t="n">
         <v>53.6987616873155</v>
       </c>
     </row>
@@ -8482,19 +9567,19 @@
       <c r="C143" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="147" t="n">
+      <c r="D143" s="161" t="n">
         <v>8.94427190999916</v>
       </c>
-      <c r="E143" s="147" t="n">
+      <c r="E143" s="161" t="n">
         <v>46.058498716273</v>
       </c>
-      <c r="F143" s="147" t="n">
+      <c r="F143" s="161" t="n">
         <v>43.7092667520287</v>
       </c>
-      <c r="G143" s="147" t="n">
+      <c r="G143" s="161" t="n">
         <v>125.906711497045</v>
       </c>
-      <c r="H143" s="147" t="n">
+      <c r="H143" s="161" t="n">
         <v>32.1609150198235</v>
       </c>
     </row>
@@ -8508,19 +9593,19 @@
       <c r="C144" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="147" t="n">
+      <c r="D144" s="161" t="n">
         <v>9.86154146165801</v>
       </c>
-      <c r="E144" s="147" t="n">
+      <c r="E144" s="161" t="n">
         <v>39.7046505523486</v>
       </c>
-      <c r="F144" s="147" t="n">
+      <c r="F144" s="161" t="n">
         <v>39.319206502675</v>
       </c>
-      <c r="G144" s="147" t="n">
+      <c r="G144" s="161" t="n">
         <v>85.6635861962363</v>
       </c>
-      <c r="H144" s="147" t="n">
+      <c r="H144" s="161" t="n">
         <v>19.1968196486659</v>
       </c>
     </row>
@@ -8534,19 +9619,19 @@
       <c r="C145" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="147" t="n">
+      <c r="D145" s="161" t="n">
         <v>10.816653826392</v>
       </c>
-      <c r="E145" s="147" t="n">
+      <c r="E145" s="161" t="n">
         <v>48.2343122092876</v>
       </c>
-      <c r="F145" s="147" t="n">
+      <c r="F145" s="161" t="n">
         <v>38.6846222677694</v>
       </c>
-      <c r="G145" s="147" t="n">
+      <c r="G145" s="161" t="n">
         <v>193.884630644102</v>
       </c>
-      <c r="H145" s="147" t="n">
+      <c r="H145" s="161" t="n">
         <v>36.2896340640323</v>
       </c>
     </row>
@@ -8560,19 +9645,19 @@
       <c r="C146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="147" t="n">
+      <c r="D146" s="161" t="n">
         <v>3.64005494464026</v>
       </c>
-      <c r="E146" s="147" t="n">
+      <c r="E146" s="161" t="n">
         <v>21.9944720578542</v>
       </c>
-      <c r="F146" s="147" t="n">
+      <c r="F146" s="161" t="n">
         <v>19.5256241897666</v>
       </c>
-      <c r="G146" s="147" t="n">
+      <c r="G146" s="161" t="n">
         <v>84.8071341338687</v>
       </c>
-      <c r="H146" s="147" t="n">
+      <c r="H146" s="161" t="n">
         <v>13.0564484874575</v>
       </c>
     </row>
@@ -8586,19 +9671,19 @@
       <c r="C147" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="147" t="n">
+      <c r="D147" s="161" t="n">
         <v>3.64005494464026</v>
       </c>
-      <c r="E147" s="147" t="n">
+      <c r="E147" s="161" t="n">
         <v>38.4483705516818</v>
       </c>
-      <c r="F147" s="147" t="n">
+      <c r="F147" s="161" t="n">
         <v>31.7016368829126</v>
       </c>
-      <c r="G147" s="147" t="n">
+      <c r="G147" s="161" t="n">
         <v>219.367271943652</v>
       </c>
-      <c r="H147" s="147" t="n">
+      <c r="H147" s="161" t="n">
         <v>27.7203383059304</v>
       </c>
     </row>
@@ -8612,19 +9697,19 @@
       <c r="C148" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="147" t="n">
+      <c r="D148" s="161" t="n">
         <v>5.85234995535981</v>
       </c>
-      <c r="E148" s="147" t="n">
+      <c r="E148" s="161" t="n">
         <v>15.5405459575199</v>
       </c>
-      <c r="F148" s="147" t="n">
+      <c r="F148" s="161" t="n">
         <v>14.3265487818944</v>
       </c>
-      <c r="G148" s="147" t="n">
+      <c r="G148" s="161" t="n">
         <v>29.8412466227535</v>
       </c>
-      <c r="H148" s="147" t="n">
+      <c r="H148" s="161" t="n">
         <v>7.38488296476122</v>
       </c>
     </row>
@@ -8638,19 +9723,19 @@
       <c r="C149" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="147" t="n">
+      <c r="D149" s="161" t="n">
         <v>5.1478150704935</v>
       </c>
-      <c r="E149" s="147" t="n">
+      <c r="E149" s="161" t="n">
         <v>15.2435155523349</v>
       </c>
-      <c r="F149" s="147" t="n">
+      <c r="F149" s="161" t="n">
         <v>12.369316876853</v>
       </c>
-      <c r="G149" s="147" t="n">
+      <c r="G149" s="161" t="n">
         <v>43.4885042281291</v>
       </c>
-      <c r="H149" s="147" t="n">
+      <c r="H149" s="161" t="n">
         <v>8.99876320211649</v>
       </c>
     </row>
@@ -8664,19 +9749,19 @@
       <c r="C150" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="147" t="n">
+      <c r="D150" s="161" t="n">
         <v>5.70087712549569</v>
       </c>
-      <c r="E150" s="147" t="n">
+      <c r="E150" s="161" t="n">
         <v>18.1736201281587</v>
       </c>
-      <c r="F150" s="147" t="n">
+      <c r="F150" s="161" t="n">
         <v>17.066048165876</v>
       </c>
-      <c r="G150" s="147" t="n">
+      <c r="G150" s="161" t="n">
         <v>30.0707499075098</v>
       </c>
-      <c r="H150" s="147" t="n">
+      <c r="H150" s="161" t="n">
         <v>8.71205857903498</v>
       </c>
     </row>
@@ -8690,19 +9775,19 @@
       <c r="C151" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="147" t="n">
+      <c r="D151" s="161" t="n">
         <v>3.64005494464026</v>
       </c>
-      <c r="E151" s="147" t="n">
+      <c r="E151" s="161" t="n">
         <v>18.1200785760667</v>
       </c>
-      <c r="F151" s="147" t="n">
+      <c r="F151" s="161" t="n">
         <v>17.1828402774396</v>
       </c>
-      <c r="G151" s="147" t="n">
+      <c r="G151" s="161" t="n">
         <v>44.1163235095582</v>
       </c>
-      <c r="H151" s="147" t="n">
+      <c r="H151" s="161" t="n">
         <v>8.06325973423894</v>
       </c>
     </row>
@@ -8716,19 +9801,19 @@
       <c r="C152" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="147" t="n">
+      <c r="D152" s="161" t="n">
         <v>2.69258240356725</v>
       </c>
-      <c r="E152" s="147" t="n">
+      <c r="E152" s="161" t="n">
         <v>17.1401038977297</v>
       </c>
-      <c r="F152" s="147" t="n">
+      <c r="F152" s="161" t="n">
         <v>16.2364776684007</v>
       </c>
-      <c r="G152" s="147" t="n">
+      <c r="G152" s="161" t="n">
         <v>48.3864650496397</v>
       </c>
-      <c r="H152" s="147" t="n">
+      <c r="H152" s="161" t="n">
         <v>8.11955941095552</v>
       </c>
     </row>
@@ -8742,19 +9827,19 @@
       <c r="C153" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="147" t="n">
+      <c r="D153" s="161" t="n">
         <v>92.8614559437876</v>
       </c>
-      <c r="E153" s="147" t="n">
+      <c r="E153" s="161" t="n">
         <v>148.804944437507</v>
       </c>
-      <c r="F153" s="147" t="n">
+      <c r="F153" s="161" t="n">
         <v>98.5925960709018</v>
       </c>
-      <c r="G153" s="147" t="n">
+      <c r="G153" s="161" t="n">
         <v>254.96078129783</v>
       </c>
-      <c r="H153" s="147" t="n">
+      <c r="H153" s="161" t="n">
         <v>82.2678929664588</v>
       </c>
     </row>
@@ -8768,19 +9853,19 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="147" t="n">
+      <c r="D154" s="161" t="n">
         <v>14.0089257261219</v>
       </c>
-      <c r="E154" s="147" t="n">
+      <c r="E154" s="161" t="n">
         <v>165.182080687611</v>
       </c>
-      <c r="F154" s="147" t="n">
+      <c r="F154" s="161" t="n">
         <v>155.515411939521</v>
       </c>
-      <c r="G154" s="147" t="n">
+      <c r="G154" s="161" t="n">
         <v>484.233414790842</v>
       </c>
-      <c r="H154" s="147" t="n">
+      <c r="H154" s="161" t="n">
         <v>108.43298138314</v>
       </c>
     </row>
@@ -8794,19 +9879,19 @@
       <c r="C155" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="147" t="n">
+      <c r="D155" s="161" t="n">
         <v>14.0890028036054</v>
       </c>
-      <c r="E155" s="147" t="n">
+      <c r="E155" s="161" t="n">
         <v>170.531771342135</v>
       </c>
-      <c r="F155" s="147" t="n">
+      <c r="F155" s="161" t="n">
         <v>150.583033572843</v>
       </c>
-      <c r="G155" s="147" t="n">
+      <c r="G155" s="161" t="n">
         <v>449.282205300855</v>
       </c>
-      <c r="H155" s="147" t="n">
+      <c r="H155" s="161" t="n">
         <v>90.484848710172</v>
       </c>
     </row>
@@ -8820,19 +9905,19 @@
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="147" t="n">
+      <c r="D156" s="161" t="n">
         <v>14.6372811683044</v>
       </c>
-      <c r="E156" s="147" t="n">
+      <c r="E156" s="161" t="n">
         <v>201.066910552621</v>
       </c>
-      <c r="F156" s="147" t="n">
+      <c r="F156" s="161" t="n">
         <v>167.52408730357</v>
       </c>
-      <c r="G156" s="147" t="n">
+      <c r="G156" s="161" t="n">
         <v>557.995071662824</v>
       </c>
-      <c r="H156" s="147" t="n">
+      <c r="H156" s="161" t="n">
         <v>122.665086207615</v>
       </c>
     </row>
@@ -8846,19 +9931,19 @@
       <c r="C157" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="147" t="n">
+      <c r="D157" s="161" t="n">
         <v>7.63216876123687</v>
       </c>
-      <c r="E157" s="147" t="n">
+      <c r="E157" s="161" t="n">
         <v>183.891664380521</v>
       </c>
-      <c r="F157" s="147" t="n">
+      <c r="F157" s="161" t="n">
         <v>163.13491349187</v>
       </c>
-      <c r="G157" s="147" t="n">
+      <c r="G157" s="161" t="n">
         <v>557.995071662824</v>
       </c>
-      <c r="H157" s="147" t="n">
+      <c r="H157" s="161" t="n">
         <v>117.094412412459</v>
       </c>
     </row>
@@ -8872,19 +9957,19 @@
       <c r="C158" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="147" t="n">
+      <c r="D158" s="161" t="n">
         <v>14.0089257261219</v>
       </c>
-      <c r="E158" s="147" t="n">
+      <c r="E158" s="161" t="n">
         <v>25.6868235719014</v>
       </c>
-      <c r="F158" s="147" t="n">
+      <c r="F158" s="161" t="n">
         <v>28.0112807195562</v>
       </c>
-      <c r="G158" s="147" t="n">
+      <c r="G158" s="161" t="n">
         <v>37.1651718682963</v>
       </c>
-      <c r="H158" s="147" t="n">
+      <c r="H158" s="161" t="n">
         <v>8.70485575660011</v>
       </c>
     </row>
@@ -8898,19 +9983,19 @@
       <c r="C159" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="147" t="n">
+      <c r="D159" s="161" t="n">
         <v>8.74642784226795</v>
       </c>
-      <c r="E159" s="147" t="n">
+      <c r="E159" s="161" t="n">
         <v>48.3529727524965</v>
       </c>
-      <c r="F159" s="147" t="n">
+      <c r="F159" s="161" t="n">
         <v>45.6179789118282</v>
       </c>
-      <c r="G159" s="147" t="n">
+      <c r="G159" s="161" t="n">
         <v>164.166074449016</v>
       </c>
-      <c r="H159" s="147" t="n">
+      <c r="H159" s="161" t="n">
         <v>29.7862035376993</v>
       </c>
     </row>
@@ -8924,19 +10009,19 @@
       <c r="C160" t="s">
         <v>9</v>
       </c>
-      <c r="D160" s="147" t="n">
+      <c r="D160" s="161" t="n">
         <v>13.6565002837477</v>
       </c>
-      <c r="E160" s="147" t="n">
+      <c r="E160" s="161" t="n">
         <v>41.3510011632294</v>
       </c>
-      <c r="F160" s="147" t="n">
+      <c r="F160" s="161" t="n">
         <v>35.0463978177501</v>
       </c>
-      <c r="G160" s="147" t="n">
+      <c r="G160" s="161" t="n">
         <v>85.8676306881703</v>
       </c>
-      <c r="H160" s="147" t="n">
+      <c r="H160" s="161" t="n">
         <v>21.8348759271124</v>
       </c>
     </row>
@@ -8950,19 +10035,19 @@
       <c r="C161" t="s">
         <v>9</v>
       </c>
-      <c r="D161" s="147" t="n">
+      <c r="D161" s="161" t="n">
         <v>8.86002257333467</v>
       </c>
-      <c r="E161" s="147" t="n">
+      <c r="E161" s="161" t="n">
         <v>71.3943938471539</v>
       </c>
-      <c r="F161" s="147" t="n">
+      <c r="F161" s="161" t="n">
         <v>67.563400436048</v>
       </c>
-      <c r="G161" s="147" t="n">
+      <c r="G161" s="161" t="n">
         <v>159.488244080873</v>
       </c>
-      <c r="H161" s="147" t="n">
+      <c r="H161" s="161" t="n">
         <v>34.5054783962619</v>
       </c>
     </row>
@@ -8976,19 +10061,19 @@
       <c r="C162" t="s">
         <v>9</v>
       </c>
-      <c r="D162" s="147" t="n">
+      <c r="D162" s="161" t="n">
         <v>4.94974746830583</v>
       </c>
-      <c r="E162" s="147" t="n">
+      <c r="E162" s="161" t="n">
         <v>56.5196043598145</v>
       </c>
-      <c r="F162" s="147" t="n">
+      <c r="F162" s="161" t="n">
         <v>49.7694685525172</v>
       </c>
-      <c r="G162" s="147" t="n">
+      <c r="G162" s="161" t="n">
         <v>164.166074449016</v>
       </c>
-      <c r="H162" s="147" t="n">
+      <c r="H162" s="161" t="n">
         <v>33.0196336078602</v>
       </c>
     </row>
@@ -9002,19 +10087,19 @@
       <c r="C163" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="147" t="n">
+      <c r="D163" s="161" t="n">
         <v>14.0890028036054</v>
       </c>
-      <c r="E163" s="147" t="n">
+      <c r="E163" s="161" t="n">
         <v>66.1473385150361</v>
       </c>
-      <c r="F163" s="147" t="n">
+      <c r="F163" s="161" t="n">
         <v>70.7343314955053</v>
       </c>
-      <c r="G163" s="147" t="n">
+      <c r="G163" s="161" t="n">
         <v>112.361025271221</v>
       </c>
-      <c r="H163" s="147" t="n">
+      <c r="H163" s="161" t="n">
         <v>34.8652481541816</v>
       </c>
     </row>
@@ -9028,19 +10113,19 @@
       <c r="C164" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="147" t="n">
+      <c r="D164" s="161" t="n">
         <v>13.6565002837477</v>
       </c>
-      <c r="E164" s="147" t="n">
+      <c r="E164" s="161" t="n">
         <v>69.1154873430089</v>
       </c>
-      <c r="F164" s="147" t="n">
+      <c r="F164" s="161" t="n">
         <v>58.5523604946442</v>
       </c>
-      <c r="G164" s="147" t="n">
+      <c r="G164" s="161" t="n">
         <v>218.088284875644</v>
       </c>
-      <c r="H164" s="147" t="n">
+      <c r="H164" s="161" t="n">
         <v>44.2113377023591</v>
       </c>
     </row>
@@ -9054,19 +10139,19 @@
       <c r="C165" t="s">
         <v>10</v>
       </c>
-      <c r="D165" s="147" t="n">
+      <c r="D165" s="161" t="n">
         <v>26.1963737948595</v>
       </c>
-      <c r="E165" s="147" t="n">
+      <c r="E165" s="161" t="n">
         <v>75.1605674272833</v>
       </c>
-      <c r="F165" s="147" t="n">
+      <c r="F165" s="161" t="n">
         <v>65.3394980084788</v>
       </c>
-      <c r="G165" s="147" t="n">
+      <c r="G165" s="161" t="n">
         <v>274.694375624984</v>
       </c>
-      <c r="H165" s="147" t="n">
+      <c r="H165" s="161" t="n">
         <v>58.8387646317779</v>
       </c>
     </row>
@@ -9080,19 +10165,19 @@
       <c r="C166" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="147" t="n">
+      <c r="D166" s="161" t="n">
         <v>16.8077363139716</v>
       </c>
-      <c r="E166" s="147" t="n">
+      <c r="E166" s="161" t="n">
         <v>107.085204124349</v>
       </c>
-      <c r="F166" s="147" t="n">
+      <c r="F166" s="161" t="n">
         <v>101.627963694145</v>
       </c>
-      <c r="G166" s="147" t="n">
+      <c r="G166" s="161" t="n">
         <v>226.5</v>
       </c>
-      <c r="H166" s="147" t="n">
+      <c r="H166" s="161" t="n">
         <v>44.9599225554411</v>
       </c>
     </row>
@@ -9106,19 +10191,19 @@
       <c r="C167" t="s">
         <v>10</v>
       </c>
-      <c r="D167" s="147" t="n">
+      <c r="D167" s="161" t="n">
         <v>6.10327780786685</v>
       </c>
-      <c r="E167" s="147" t="n">
+      <c r="E167" s="161" t="n">
         <v>86.2685854161759</v>
       </c>
-      <c r="F167" s="147" t="n">
+      <c r="F167" s="161" t="n">
         <v>79.3426115022691</v>
       </c>
-      <c r="G167" s="147" t="n">
+      <c r="G167" s="161" t="n">
         <v>274.694375624984</v>
       </c>
-      <c r="H167" s="147" t="n">
+      <c r="H167" s="161" t="n">
         <v>49.3210977322147</v>
       </c>
     </row>
@@ -9132,19 +10217,19 @@
       <c r="C168" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="147" t="n">
+      <c r="D168" s="161" t="n">
         <v>14.6372811683044</v>
       </c>
-      <c r="E168" s="147" t="n">
+      <c r="E168" s="161" t="n">
         <v>60.0838322583891</v>
       </c>
-      <c r="F168" s="147" t="n">
+      <c r="F168" s="161" t="n">
         <v>52.8479943266005</v>
       </c>
-      <c r="G168" s="147" t="n">
+      <c r="G168" s="161" t="n">
         <v>130.84819448506</v>
       </c>
-      <c r="H168" s="147" t="n">
+      <c r="H168" s="161" t="n">
         <v>43.826016489922</v>
       </c>
     </row>
@@ -9158,19 +10243,19 @@
       <c r="C169" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="147" t="n">
+      <c r="D169" s="161" t="n">
         <v>8.86002257333467</v>
       </c>
-      <c r="E169" s="147" t="n">
+      <c r="E169" s="161" t="n">
         <v>48.7888288843922</v>
       </c>
-      <c r="F169" s="147" t="n">
+      <c r="F169" s="161" t="n">
         <v>43.0491254490945</v>
       </c>
-      <c r="G169" s="147" t="n">
+      <c r="G169" s="161" t="n">
         <v>125.207827231368</v>
       </c>
-      <c r="H169" s="147" t="n">
+      <c r="H169" s="161" t="n">
         <v>28.8740338072393</v>
       </c>
     </row>
@@ -9184,19 +10269,19 @@
       <c r="C170" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="147" t="n">
+      <c r="D170" s="161" t="n">
         <v>16.8077363139716</v>
       </c>
-      <c r="E170" s="147" t="n">
+      <c r="E170" s="161" t="n">
         <v>62.9844710690883</v>
       </c>
-      <c r="F170" s="147" t="n">
+      <c r="F170" s="161" t="n">
         <v>47.0239300782059</v>
       </c>
-      <c r="G170" s="147" t="n">
+      <c r="G170" s="161" t="n">
         <v>128.015624046442</v>
       </c>
-      <c r="H170" s="147" t="n">
+      <c r="H170" s="161" t="n">
         <v>32.9977114078059</v>
       </c>
     </row>
@@ -9210,19 +10295,19 @@
       <c r="C171" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="147" t="n">
+      <c r="D171" s="161" t="n">
         <v>5.59016994374947</v>
       </c>
-      <c r="E171" s="147" t="n">
+      <c r="E171" s="161" t="n">
         <v>20.7558439269529</v>
       </c>
-      <c r="F171" s="147" t="n">
+      <c r="F171" s="161" t="n">
         <v>18.0346887968714</v>
       </c>
-      <c r="G171" s="147" t="n">
+      <c r="G171" s="161" t="n">
         <v>86.5057801536984</v>
       </c>
-      <c r="H171" s="147" t="n">
+      <c r="H171" s="161" t="n">
         <v>11.5201039082205</v>
       </c>
     </row>
@@ -9236,19 +10321,19 @@
       <c r="C172" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="147" t="n">
+      <c r="D172" s="161" t="n">
         <v>5.59016994374947</v>
       </c>
-      <c r="E172" s="147" t="n">
+      <c r="E172" s="161" t="n">
         <v>41.6342139938533</v>
       </c>
-      <c r="F172" s="147" t="n">
+      <c r="F172" s="161" t="n">
         <v>31.4682379551191</v>
       </c>
-      <c r="G172" s="147" t="n">
+      <c r="G172" s="161" t="n">
         <v>162.000771603101</v>
       </c>
-      <c r="H172" s="147" t="n">
+      <c r="H172" s="161" t="n">
         <v>31.9244937608565</v>
       </c>
     </row>
@@ -9262,19 +10347,19 @@
       <c r="C173" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="147" t="n">
+      <c r="D173" s="161" t="n">
         <v>7.63216876123687</v>
       </c>
-      <c r="E173" s="147" t="n">
+      <c r="E173" s="161" t="n">
         <v>12.8514379737465</v>
       </c>
-      <c r="F173" s="147" t="n">
+      <c r="F173" s="161" t="n">
         <v>13.0148705031466</v>
       </c>
-      <c r="G173" s="147" t="n">
+      <c r="G173" s="161" t="n">
         <v>20.6700266085944</v>
       </c>
-      <c r="H173" s="147" t="n">
+      <c r="H173" s="161" t="n">
         <v>4.81234354637498</v>
       </c>
     </row>
@@ -9288,19 +10373,19 @@
       <c r="C174" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="147" t="n">
+      <c r="D174" s="161" t="n">
         <v>4.94974746830583</v>
       </c>
-      <c r="E174" s="147" t="n">
+      <c r="E174" s="161" t="n">
         <v>17.9106383251779</v>
       </c>
-      <c r="F174" s="147" t="n">
+      <c r="F174" s="161" t="n">
         <v>16.7245997852526</v>
       </c>
-      <c r="G174" s="147" t="n">
+      <c r="G174" s="161" t="n">
         <v>37.5033331851984</v>
       </c>
-      <c r="H174" s="147" t="n">
+      <c r="H174" s="161" t="n">
         <v>8.23995828799568</v>
       </c>
     </row>
@@ -9314,19 +10399,19 @@
       <c r="C175" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="147" t="n">
+      <c r="D175" s="161" t="n">
         <v>6.10327780786685</v>
       </c>
-      <c r="E175" s="147" t="n">
+      <c r="E175" s="161" t="n">
         <v>18.3506441793854</v>
       </c>
-      <c r="F175" s="147" t="n">
+      <c r="F175" s="161" t="n">
         <v>17.6139149538085</v>
       </c>
-      <c r="G175" s="147" t="n">
+      <c r="G175" s="161" t="n">
         <v>33.6786282380978</v>
       </c>
-      <c r="H175" s="147" t="n">
+      <c r="H175" s="161" t="n">
         <v>7.44558250922325</v>
       </c>
     </row>
@@ -9340,19 +10425,19 @@
       <c r="C176" t="s">
         <v>12</v>
       </c>
-      <c r="D176" s="147" t="n">
+      <c r="D176" s="161" t="n">
         <v>5.59016994374947</v>
       </c>
-      <c r="E176" s="147" t="n">
+      <c r="E176" s="161" t="n">
         <v>18.9972286091676</v>
       </c>
-      <c r="F176" s="147" t="n">
+      <c r="F176" s="161" t="n">
         <v>16.9189243156886</v>
       </c>
-      <c r="G176" s="147" t="n">
+      <c r="G176" s="161" t="n">
         <v>50.2493781056044</v>
       </c>
-      <c r="H176" s="147" t="n">
+      <c r="H176" s="161" t="n">
         <v>8.99661388616238</v>
       </c>
     </row>
@@ -9366,19 +10451,19 @@
       <c r="C177" t="s">
         <v>12</v>
       </c>
-      <c r="D177" s="147" t="n">
+      <c r="D177" s="161" t="n">
         <v>3.53553390593274</v>
       </c>
-      <c r="E177" s="147" t="n">
+      <c r="E177" s="161" t="n">
         <v>17.8618307869322</v>
       </c>
-      <c r="F177" s="147" t="n">
+      <c r="F177" s="161" t="n">
         <v>16.7705098312484</v>
       </c>
-      <c r="G177" s="147" t="n">
+      <c r="G177" s="161" t="n">
         <v>50.2493781056044</v>
       </c>
-      <c r="H177" s="147" t="n">
+      <c r="H177" s="161" t="n">
         <v>8.5152222538003</v>
       </c>
     </row>
@@ -9392,19 +10477,19 @@
       <c r="C178" t="s">
         <v>8</v>
       </c>
-      <c r="D178" s="147" t="n">
+      <c r="D178" s="161" t="n">
         <v>8.54400374531753</v>
       </c>
-      <c r="E178" s="147" t="n">
+      <c r="E178" s="161" t="n">
         <v>84.1742201787795</v>
       </c>
-      <c r="F178" s="147" t="n">
+      <c r="F178" s="161" t="n">
         <v>71.7112264572291</v>
       </c>
-      <c r="G178" s="147" t="n">
+      <c r="G178" s="161" t="n">
         <v>295.777788212705</v>
       </c>
-      <c r="H178" s="147" t="n">
+      <c r="H178" s="161" t="n">
         <v>68.8396133085985</v>
       </c>
     </row>
@@ -9418,19 +10503,19 @@
       <c r="C179" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="147" t="n">
+      <c r="D179" s="161" t="n">
         <v>14.142135623731</v>
       </c>
-      <c r="E179" s="147" t="n">
+      <c r="E179" s="161" t="n">
         <v>98.6109021389633</v>
       </c>
-      <c r="F179" s="147" t="n">
+      <c r="F179" s="161" t="n">
         <v>108.374351209131</v>
       </c>
-      <c r="G179" s="147" t="n">
+      <c r="G179" s="161" t="n">
         <v>187.114937939225</v>
       </c>
-      <c r="H179" s="147" t="n">
+      <c r="H179" s="161" t="n">
         <v>50.9348552398727</v>
       </c>
     </row>
@@ -9444,19 +10529,19 @@
       <c r="C180" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="147" t="n">
+      <c r="D180" s="161" t="n">
         <v>11.629703349613</v>
       </c>
-      <c r="E180" s="147" t="n">
+      <c r="E180" s="161" t="n">
         <v>80.8103733281918</v>
       </c>
-      <c r="F180" s="147" t="n">
+      <c r="F180" s="161" t="n">
         <v>73.8281321269326</v>
       </c>
-      <c r="G180" s="147" t="n">
+      <c r="G180" s="161" t="n">
         <v>185.85612715216</v>
       </c>
-      <c r="H180" s="147" t="n">
+      <c r="H180" s="161" t="n">
         <v>41.6022331138864</v>
       </c>
     </row>
@@ -9470,19 +10555,19 @@
       <c r="C181" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="147" t="n">
+      <c r="D181" s="161" t="n">
         <v>8.86002257333467</v>
       </c>
-      <c r="E181" s="147" t="n">
+      <c r="E181" s="161" t="n">
         <v>97.948222837386</v>
       </c>
-      <c r="F181" s="147" t="n">
+      <c r="F181" s="161" t="n">
         <v>97.1583387558317</v>
       </c>
-      <c r="G181" s="147" t="n">
+      <c r="G181" s="161" t="n">
         <v>225.726604546296</v>
       </c>
-      <c r="H181" s="147" t="n">
+      <c r="H181" s="161" t="n">
         <v>48.7785927186552</v>
       </c>
     </row>
@@ -9496,19 +10581,19 @@
       <c r="C182" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="147" t="n">
+      <c r="D182" s="161" t="n">
         <v>4.94974746830583</v>
       </c>
-      <c r="E182" s="147" t="n">
+      <c r="E182" s="161" t="n">
         <v>91.5880203635591</v>
       </c>
-      <c r="F182" s="147" t="n">
+      <c r="F182" s="161" t="n">
         <v>87.2732645073966</v>
       </c>
-      <c r="G182" s="147" t="n">
+      <c r="G182" s="161" t="n">
         <v>295.777788212705</v>
       </c>
-      <c r="H182" s="147" t="n">
+      <c r="H182" s="161" t="n">
         <v>46.2321341650745</v>
       </c>
     </row>
@@ -9522,19 +10607,19 @@
       <c r="C183" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="147" t="n">
+      <c r="D183" s="161" t="n">
         <v>14.142135623731</v>
       </c>
-      <c r="E183" s="147" t="n">
+      <c r="E183" s="161" t="n">
         <v>89.2543788048996</v>
       </c>
-      <c r="F183" s="147" t="n">
+      <c r="F183" s="161" t="n">
         <v>83.0857990272706</v>
       </c>
-      <c r="G183" s="147" t="n">
+      <c r="G183" s="161" t="n">
         <v>185.133735445488</v>
       </c>
-      <c r="H183" s="147" t="n">
+      <c r="H183" s="161" t="n">
         <v>50.9213508041121</v>
       </c>
     </row>
@@ -9548,19 +10633,19 @@
       <c r="C184" t="s">
         <v>9</v>
       </c>
-      <c r="D184" s="147" t="n">
+      <c r="D184" s="161" t="n">
         <v>12.3490890352285</v>
       </c>
-      <c r="E184" s="147" t="n">
+      <c r="E184" s="161" t="n">
         <v>62.9567498956211</v>
       </c>
-      <c r="F184" s="147" t="n">
+      <c r="F184" s="161" t="n">
         <v>29.4363720590701</v>
       </c>
-      <c r="G184" s="147" t="n">
+      <c r="G184" s="161" t="n">
         <v>191.724411591221</v>
       </c>
-      <c r="H184" s="147" t="n">
+      <c r="H184" s="161" t="n">
         <v>60.3246013224226</v>
       </c>
     </row>
@@ -9574,19 +10659,19 @@
       <c r="C185" t="s">
         <v>9</v>
       </c>
-      <c r="D185" s="147" t="n">
+      <c r="D185" s="161" t="n">
         <v>28.0401497856199</v>
       </c>
-      <c r="E185" s="147" t="n">
+      <c r="E185" s="161" t="n">
         <v>89.956199800915</v>
       </c>
-      <c r="F185" s="147" t="n">
+      <c r="F185" s="161" t="n">
         <v>82.1760176277402</v>
       </c>
-      <c r="G185" s="147" t="n">
+      <c r="G185" s="161" t="n">
         <v>199.572042130154</v>
       </c>
-      <c r="H185" s="147" t="n">
+      <c r="H185" s="161" t="n">
         <v>40.585805300249</v>
       </c>
     </row>
@@ -9600,19 +10685,19 @@
       <c r="C186" t="s">
         <v>9</v>
       </c>
-      <c r="D186" s="147" t="n">
+      <c r="D186" s="161" t="n">
         <v>9.8488578017961</v>
       </c>
-      <c r="E186" s="147" t="n">
+      <c r="E186" s="161" t="n">
         <v>114.573839019634</v>
       </c>
-      <c r="F186" s="147" t="n">
+      <c r="F186" s="161" t="n">
         <v>97.2009407107025</v>
       </c>
-      <c r="G186" s="147" t="n">
+      <c r="G186" s="161" t="n">
         <v>313.139345978751</v>
       </c>
-      <c r="H186" s="147" t="n">
+      <c r="H186" s="161" t="n">
         <v>67.4800103158887</v>
       </c>
     </row>
@@ -9626,19 +10711,19 @@
       <c r="C187" t="s">
         <v>9</v>
       </c>
-      <c r="D187" s="147" t="n">
+      <c r="D187" s="161" t="n">
         <v>7.21110255092798</v>
       </c>
-      <c r="E187" s="147" t="n">
+      <c r="E187" s="161" t="n">
         <v>113.066066616714</v>
       </c>
-      <c r="F187" s="147" t="n">
+      <c r="F187" s="161" t="n">
         <v>107.219196568009</v>
       </c>
-      <c r="G187" s="147" t="n">
+      <c r="G187" s="161" t="n">
         <v>313.139345978751</v>
       </c>
-      <c r="H187" s="147" t="n">
+      <c r="H187" s="161" t="n">
         <v>62.7849794891468</v>
       </c>
     </row>
@@ -9652,19 +10737,19 @@
       <c r="C188" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="147" t="n">
+      <c r="D188" s="161" t="n">
         <v>11.629703349613</v>
       </c>
-      <c r="E188" s="147" t="n">
+      <c r="E188" s="161" t="n">
         <v>94.2487681960364</v>
       </c>
-      <c r="F188" s="147" t="n">
+      <c r="F188" s="161" t="n">
         <v>80.9706737035082</v>
       </c>
-      <c r="G188" s="147" t="n">
+      <c r="G188" s="161" t="n">
         <v>219.604758600537</v>
       </c>
-      <c r="H188" s="147" t="n">
+      <c r="H188" s="161" t="n">
         <v>51.717971396726</v>
       </c>
     </row>
@@ -9678,19 +10763,19 @@
       <c r="C189" t="s">
         <v>10</v>
       </c>
-      <c r="D189" s="147" t="n">
+      <c r="D189" s="161" t="n">
         <v>28.0401497856199</v>
       </c>
-      <c r="E189" s="147" t="n">
+      <c r="E189" s="161" t="n">
         <v>108.309029492629</v>
       </c>
-      <c r="F189" s="147" t="n">
+      <c r="F189" s="161" t="n">
         <v>99.982498468482</v>
       </c>
-      <c r="G189" s="147" t="n">
+      <c r="G189" s="161" t="n">
         <v>290.470738629556</v>
       </c>
-      <c r="H189" s="147" t="n">
+      <c r="H189" s="161" t="n">
         <v>54.4390653564425</v>
       </c>
     </row>
@@ -9704,19 +10789,19 @@
       <c r="C190" t="s">
         <v>10</v>
       </c>
-      <c r="D190" s="147" t="n">
+      <c r="D190" s="161" t="n">
         <v>25.2685575369866</v>
       </c>
-      <c r="E190" s="147" t="n">
+      <c r="E190" s="161" t="n">
         <v>106.732667639166</v>
       </c>
-      <c r="F190" s="147" t="n">
+      <c r="F190" s="161" t="n">
         <v>90.9198482899205</v>
       </c>
-      <c r="G190" s="147" t="n">
+      <c r="G190" s="161" t="n">
         <v>301.709297171963</v>
       </c>
-      <c r="H190" s="147" t="n">
+      <c r="H190" s="161" t="n">
         <v>78.9655842917396</v>
       </c>
     </row>
@@ -9730,19 +10815,19 @@
       <c r="C191" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="147" t="n">
+      <c r="D191" s="161" t="n">
         <v>18.7416648139913</v>
       </c>
-      <c r="E191" s="147" t="n">
+      <c r="E191" s="161" t="n">
         <v>130.657021471289</v>
       </c>
-      <c r="F191" s="147" t="n">
+      <c r="F191" s="161" t="n">
         <v>127.690194535326</v>
       </c>
-      <c r="G191" s="147" t="n">
+      <c r="G191" s="161" t="n">
         <v>351.774430565952</v>
       </c>
-      <c r="H191" s="147" t="n">
+      <c r="H191" s="161" t="n">
         <v>66.083798027364</v>
       </c>
     </row>
@@ -9756,19 +10841,19 @@
       <c r="C192" t="s">
         <v>10</v>
       </c>
-      <c r="D192" s="147" t="n">
+      <c r="D192" s="161" t="n">
         <v>10.3077640640442</v>
       </c>
-      <c r="E192" s="147" t="n">
+      <c r="E192" s="161" t="n">
         <v>107.642845736654</v>
       </c>
-      <c r="F192" s="147" t="n">
+      <c r="F192" s="161" t="n">
         <v>95.1498700119733</v>
       </c>
-      <c r="G192" s="147" t="n">
+      <c r="G192" s="161" t="n">
         <v>377.720134491134</v>
       </c>
-      <c r="H192" s="147" t="n">
+      <c r="H192" s="161" t="n">
         <v>62.9357116770874</v>
       </c>
     </row>
@@ -9782,19 +10867,19 @@
       <c r="C193" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="147" t="n">
+      <c r="D193" s="161" t="n">
         <v>8.86002257333467</v>
       </c>
-      <c r="E193" s="147" t="n">
+      <c r="E193" s="161" t="n">
         <v>51.4568712037604</v>
       </c>
-      <c r="F193" s="147" t="n">
+      <c r="F193" s="161" t="n">
         <v>52.0096144957834</v>
       </c>
-      <c r="G193" s="147" t="n">
+      <c r="G193" s="161" t="n">
         <v>95.316577781622</v>
       </c>
-      <c r="H193" s="147" t="n">
+      <c r="H193" s="161" t="n">
         <v>29.5081134911067</v>
       </c>
     </row>
@@ -9808,19 +10893,19 @@
       <c r="C194" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="147" t="n">
+      <c r="D194" s="161" t="n">
         <v>9.8488578017961</v>
       </c>
-      <c r="E194" s="147" t="n">
+      <c r="E194" s="161" t="n">
         <v>49.6068905352413</v>
       </c>
-      <c r="F194" s="147" t="n">
+      <c r="F194" s="161" t="n">
         <v>48.5824042221049</v>
       </c>
-      <c r="G194" s="147" t="n">
+      <c r="G194" s="161" t="n">
         <v>86.9770084562581</v>
       </c>
-      <c r="H194" s="147" t="n">
+      <c r="H194" s="161" t="n">
         <v>22.1325943349581</v>
       </c>
     </row>
@@ -9834,19 +10919,19 @@
       <c r="C195" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="147" t="n">
+      <c r="D195" s="161" t="n">
         <v>18.7416648139913</v>
       </c>
-      <c r="E195" s="147" t="n">
+      <c r="E195" s="161" t="n">
         <v>69.0304370500457</v>
       </c>
-      <c r="F195" s="147" t="n">
+      <c r="F195" s="161" t="n">
         <v>67.644385998486</v>
       </c>
-      <c r="G195" s="147" t="n">
+      <c r="G195" s="161" t="n">
         <v>140.905109914439</v>
       </c>
-      <c r="H195" s="147" t="n">
+      <c r="H195" s="161" t="n">
         <v>36.9993514996095</v>
       </c>
     </row>
@@ -9860,19 +10945,19 @@
       <c r="C196" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="147" t="n">
+      <c r="D196" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E196" s="147" t="n">
+      <c r="E196" s="161" t="n">
         <v>31.2684188637207</v>
       </c>
-      <c r="F196" s="147" t="n">
+      <c r="F196" s="161" t="n">
         <v>24.012384063508</v>
       </c>
-      <c r="G196" s="147" t="n">
+      <c r="G196" s="161" t="n">
         <v>167.126449133583</v>
       </c>
-      <c r="H196" s="147" t="n">
+      <c r="H196" s="161" t="n">
         <v>25.8232716312707</v>
       </c>
     </row>
@@ -9886,19 +10971,19 @@
       <c r="C197" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="147" t="n">
+      <c r="D197" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E197" s="147" t="n">
+      <c r="E197" s="161" t="n">
         <v>50.3810313423743</v>
       </c>
-      <c r="F197" s="147" t="n">
+      <c r="F197" s="161" t="n">
         <v>42.8776661539472</v>
       </c>
-      <c r="G197" s="147" t="n">
+      <c r="G197" s="161" t="n">
         <v>167.126449133583</v>
       </c>
-      <c r="H197" s="147" t="n">
+      <c r="H197" s="161" t="n">
         <v>33.1524929657369</v>
       </c>
     </row>
@@ -9912,19 +10997,19 @@
       <c r="C198" t="s">
         <v>12</v>
       </c>
-      <c r="D198" s="147" t="n">
+      <c r="D198" s="161" t="n">
         <v>4.94974746830583</v>
       </c>
-      <c r="E198" s="147" t="n">
+      <c r="E198" s="161" t="n">
         <v>16.9319030098409</v>
       </c>
-      <c r="F198" s="147" t="n">
+      <c r="F198" s="161" t="n">
         <v>14.142135623731</v>
       </c>
-      <c r="G198" s="147" t="n">
+      <c r="G198" s="161" t="n">
         <v>37.3664287830668</v>
       </c>
-      <c r="H198" s="147" t="n">
+      <c r="H198" s="161" t="n">
         <v>9.16712892422794</v>
       </c>
     </row>
@@ -9938,19 +11023,19 @@
       <c r="C199" t="s">
         <v>12</v>
       </c>
-      <c r="D199" s="147" t="n">
+      <c r="D199" s="161" t="n">
         <v>7.21110255092798</v>
       </c>
-      <c r="E199" s="147" t="n">
+      <c r="E199" s="161" t="n">
         <v>16.202394525163</v>
       </c>
-      <c r="F199" s="147" t="n">
+      <c r="F199" s="161" t="n">
         <v>13.5830777072061</v>
       </c>
-      <c r="G199" s="147" t="n">
+      <c r="G199" s="161" t="n">
         <v>29.4363720590701</v>
       </c>
-      <c r="H199" s="147" t="n">
+      <c r="H199" s="161" t="n">
         <v>6.64691900308078</v>
       </c>
     </row>
@@ -9964,19 +11049,19 @@
       <c r="C200" t="s">
         <v>12</v>
       </c>
-      <c r="D200" s="147" t="n">
+      <c r="D200" s="161" t="n">
         <v>10.3077640640442</v>
       </c>
-      <c r="E200" s="147" t="n">
+      <c r="E200" s="161" t="n">
         <v>19.8492902415789</v>
       </c>
-      <c r="F200" s="147" t="n">
+      <c r="F200" s="161" t="n">
         <v>19.7279517181826</v>
       </c>
-      <c r="G200" s="147" t="n">
+      <c r="G200" s="161" t="n">
         <v>34.0771184227775</v>
       </c>
-      <c r="H200" s="147" t="n">
+      <c r="H200" s="161" t="n">
         <v>6.99209472899674</v>
       </c>
     </row>
@@ -9990,19 +11075,19 @@
       <c r="C201" t="s">
         <v>12</v>
       </c>
-      <c r="D201" s="147" t="n">
+      <c r="D201" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E201" s="147" t="n">
+      <c r="E201" s="161" t="n">
         <v>18.1648972937776</v>
       </c>
-      <c r="F201" s="147" t="n">
+      <c r="F201" s="161" t="n">
         <v>16.2364776684007</v>
       </c>
-      <c r="G201" s="147" t="n">
+      <c r="G201" s="161" t="n">
         <v>48.5824042221049</v>
       </c>
-      <c r="H201" s="147" t="n">
+      <c r="H201" s="161" t="n">
         <v>9.55309436093652</v>
       </c>
     </row>
@@ -10016,19 +11101,19 @@
       <c r="C202" t="s">
         <v>12</v>
       </c>
-      <c r="D202" s="147" t="n">
+      <c r="D202" s="161" t="n">
         <v>4.60977222864644</v>
       </c>
-      <c r="E202" s="147" t="n">
+      <c r="E202" s="161" t="n">
         <v>17.7772283917665</v>
       </c>
-      <c r="F202" s="147" t="n">
+      <c r="F202" s="161" t="n">
         <v>15.7003184681076</v>
       </c>
-      <c r="G202" s="147" t="n">
+      <c r="G202" s="161" t="n">
         <v>73.9949322589054</v>
       </c>
-      <c r="H202" s="147" t="n">
+      <c r="H202" s="161" t="n">
         <v>9.44048378909415</v>
       </c>
     </row>
@@ -10042,19 +11127,19 @@
       <c r="C203" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="147" t="n">
+      <c r="D203" s="161" t="n">
         <v>14.2214626533279</v>
       </c>
-      <c r="E203" s="147" t="n">
+      <c r="E203" s="161" t="n">
         <v>72.2950140691447</v>
       </c>
-      <c r="F203" s="147" t="n">
+      <c r="F203" s="161" t="n">
         <v>51.662365412358</v>
       </c>
-      <c r="G203" s="147" t="n">
+      <c r="G203" s="161" t="n">
         <v>218.758428409056</v>
       </c>
-      <c r="H203" s="147" t="n">
+      <c r="H203" s="161" t="n">
         <v>57.978273056434</v>
       </c>
     </row>
@@ -10068,19 +11153,19 @@
       <c r="C204" t="s">
         <v>8</v>
       </c>
-      <c r="D204" s="147" t="n">
-        <v>11</v>
-      </c>
-      <c r="E204" s="147" t="n">
+      <c r="D204" s="161" t="n">
+        <v>11</v>
+      </c>
+      <c r="E204" s="161" t="n">
         <v>67.9366416405892</v>
       </c>
-      <c r="F204" s="147" t="n">
+      <c r="F204" s="161" t="n">
         <v>59.7703940090744</v>
       </c>
-      <c r="G204" s="147" t="n">
+      <c r="G204" s="161" t="n">
         <v>163.677273926468</v>
       </c>
-      <c r="H204" s="147" t="n">
+      <c r="H204" s="161" t="n">
         <v>32.3379061333511</v>
       </c>
     </row>
@@ -10094,19 +11179,19 @@
       <c r="C205" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="147" t="n">
+      <c r="D205" s="161" t="n">
         <v>6.9462219947249</v>
       </c>
-      <c r="E205" s="147" t="n">
+      <c r="E205" s="161" t="n">
         <v>75.2663428208109</v>
       </c>
-      <c r="F205" s="147" t="n">
+      <c r="F205" s="161" t="n">
         <v>71.2598378947974</v>
       </c>
-      <c r="G205" s="147" t="n">
+      <c r="G205" s="161" t="n">
         <v>181.844026572225</v>
       </c>
-      <c r="H205" s="147" t="n">
+      <c r="H205" s="161" t="n">
         <v>39.0448803698829</v>
       </c>
     </row>
@@ -10120,19 +11205,19 @@
       <c r="C206" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="147" t="n">
+      <c r="D206" s="161" t="n">
         <v>27.1661554144122</v>
       </c>
-      <c r="E206" s="147" t="n">
+      <c r="E206" s="161" t="n">
         <v>121.529053181989</v>
       </c>
-      <c r="F206" s="147" t="n">
+      <c r="F206" s="161" t="n">
         <v>123.839614017486</v>
       </c>
-      <c r="G206" s="147" t="n">
+      <c r="G206" s="161" t="n">
         <v>222.854212434946</v>
       </c>
-      <c r="H206" s="147" t="n">
+      <c r="H206" s="161" t="n">
         <v>45.5498119625482</v>
       </c>
     </row>
@@ -10146,19 +11231,19 @@
       <c r="C207" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="147" t="n">
+      <c r="D207" s="161" t="n">
         <v>6.9462219947249</v>
       </c>
-      <c r="E207" s="147" t="n">
+      <c r="E207" s="161" t="n">
         <v>88.0354106226803</v>
       </c>
-      <c r="F207" s="147" t="n">
+      <c r="F207" s="161" t="n">
         <v>81.6302453815687</v>
       </c>
-      <c r="G207" s="147" t="n">
+      <c r="G207" s="161" t="n">
         <v>222.854212434946</v>
       </c>
-      <c r="H207" s="147" t="n">
+      <c r="H207" s="161" t="n">
         <v>47.3300639656023</v>
       </c>
     </row>
@@ -10172,19 +11257,19 @@
       <c r="C208" t="s">
         <v>9</v>
       </c>
-      <c r="D208" s="147" t="n">
-        <v>11</v>
-      </c>
-      <c r="E208" s="147" t="n">
+      <c r="D208" s="161" t="n">
+        <v>11</v>
+      </c>
+      <c r="E208" s="161" t="n">
         <v>68.1463702558818</v>
       </c>
-      <c r="F208" s="147" t="n">
+      <c r="F208" s="161" t="n">
         <v>46.5295604965274</v>
       </c>
-      <c r="G208" s="147" t="n">
+      <c r="G208" s="161" t="n">
         <v>226.743246867465</v>
       </c>
-      <c r="H208" s="147" t="n">
+      <c r="H208" s="161" t="n">
         <v>63.8165683566667</v>
       </c>
     </row>
@@ -10198,19 +11283,19 @@
       <c r="C209" t="s">
         <v>9</v>
       </c>
-      <c r="D209" s="147" t="n">
+      <c r="D209" s="161" t="n">
         <v>3.5</v>
       </c>
-      <c r="E209" s="147" t="n">
+      <c r="E209" s="161" t="n">
         <v>47.58661433143</v>
       </c>
-      <c r="F209" s="147" t="n">
+      <c r="F209" s="161" t="n">
         <v>42.1574429964627</v>
       </c>
-      <c r="G209" s="147" t="n">
+      <c r="G209" s="161" t="n">
         <v>150.516610379054</v>
       </c>
-      <c r="H209" s="147" t="n">
+      <c r="H209" s="161" t="n">
         <v>31.2909434092121</v>
       </c>
     </row>
@@ -10224,19 +11309,19 @@
       <c r="C210" t="s">
         <v>9</v>
       </c>
-      <c r="D210" s="147" t="n">
+      <c r="D210" s="161" t="n">
         <v>10.1242283656583</v>
       </c>
-      <c r="E210" s="147" t="n">
+      <c r="E210" s="161" t="n">
         <v>51.2787423749945</v>
       </c>
-      <c r="F210" s="147" t="n">
+      <c r="F210" s="161" t="n">
         <v>45.6055307559776</v>
       </c>
-      <c r="G210" s="147" t="n">
+      <c r="G210" s="161" t="n">
         <v>133.710508188399</v>
       </c>
-      <c r="H210" s="147" t="n">
+      <c r="H210" s="161" t="n">
         <v>29.6251824928474</v>
       </c>
     </row>
@@ -10250,19 +11335,19 @@
       <c r="C211" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="147" t="n">
+      <c r="D211" s="161" t="n">
         <v>18.3439363278441</v>
       </c>
-      <c r="E211" s="147" t="n">
+      <c r="E211" s="161" t="n">
         <v>105.819644055314</v>
       </c>
-      <c r="F211" s="147" t="n">
+      <c r="F211" s="161" t="n">
         <v>102.402392550174</v>
       </c>
-      <c r="G211" s="147" t="n">
+      <c r="G211" s="161" t="n">
         <v>240.493762912887</v>
       </c>
-      <c r="H211" s="147" t="n">
+      <c r="H211" s="161" t="n">
         <v>47.2242305171975</v>
       </c>
     </row>
@@ -10276,19 +11361,19 @@
       <c r="C212" t="s">
         <v>9</v>
       </c>
-      <c r="D212" s="147" t="n">
+      <c r="D212" s="161" t="n">
         <v>3.5</v>
       </c>
-      <c r="E212" s="147" t="n">
+      <c r="E212" s="161" t="n">
         <v>70.9757881912252</v>
       </c>
-      <c r="F212" s="147" t="n">
+      <c r="F212" s="161" t="n">
         <v>60.818067019109</v>
       </c>
-      <c r="G212" s="147" t="n">
+      <c r="G212" s="161" t="n">
         <v>240.493762912887</v>
       </c>
-      <c r="H212" s="147" t="n">
+      <c r="H212" s="161" t="n">
         <v>43.7622944261445</v>
       </c>
     </row>
@@ -10302,19 +11387,19 @@
       <c r="C213" t="s">
         <v>10</v>
       </c>
-      <c r="D213" s="147" t="n">
+      <c r="D213" s="161" t="n">
         <v>6.9462219947249</v>
       </c>
-      <c r="E213" s="147" t="n">
+      <c r="E213" s="161" t="n">
         <v>54.3680042530448</v>
       </c>
-      <c r="F213" s="147" t="n">
+      <c r="F213" s="161" t="n">
         <v>43.5660418215839</v>
       </c>
-      <c r="G213" s="147" t="n">
+      <c r="G213" s="161" t="n">
         <v>152.276885967635</v>
       </c>
-      <c r="H213" s="147" t="n">
+      <c r="H213" s="161" t="n">
         <v>39.4049504284903</v>
       </c>
     </row>
@@ -10328,19 +11413,19 @@
       <c r="C214" t="s">
         <v>10</v>
       </c>
-      <c r="D214" s="147" t="n">
+      <c r="D214" s="161" t="n">
         <v>10.1242283656583</v>
       </c>
-      <c r="E214" s="147" t="n">
+      <c r="E214" s="161" t="n">
         <v>50.4315040526362</v>
       </c>
-      <c r="F214" s="147" t="n">
+      <c r="F214" s="161" t="n">
         <v>44.1163235095582</v>
       </c>
-      <c r="G214" s="147" t="n">
+      <c r="G214" s="161" t="n">
         <v>146.017978345134</v>
       </c>
-      <c r="H214" s="147" t="n">
+      <c r="H214" s="161" t="n">
         <v>31.414023368304</v>
       </c>
     </row>
@@ -10354,19 +11439,19 @@
       <c r="C215" t="s">
         <v>10</v>
       </c>
-      <c r="D215" s="147" t="n">
+      <c r="D215" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E215" s="147" t="n">
+      <c r="E215" s="161" t="n">
         <v>44.1738078119754</v>
       </c>
-      <c r="F215" s="147" t="n">
+      <c r="F215" s="161" t="n">
         <v>34.8582515145341</v>
       </c>
-      <c r="G215" s="147" t="n">
+      <c r="G215" s="161" t="n">
         <v>123.858790564094</v>
       </c>
-      <c r="H215" s="147" t="n">
+      <c r="H215" s="161" t="n">
         <v>29.1962913257308</v>
       </c>
     </row>
@@ -10380,19 +11465,19 @@
       <c r="C216" t="s">
         <v>10</v>
       </c>
-      <c r="D216" s="147" t="n">
+      <c r="D216" s="161" t="n">
         <v>10.3077640640442</v>
       </c>
-      <c r="E216" s="147" t="n">
+      <c r="E216" s="161" t="n">
         <v>111.45168598459</v>
       </c>
-      <c r="F216" s="147" t="n">
+      <c r="F216" s="161" t="n">
         <v>112.004464196745</v>
       </c>
-      <c r="G216" s="147" t="n">
+      <c r="G216" s="161" t="n">
         <v>224.017856431134</v>
       </c>
-      <c r="H216" s="147" t="n">
+      <c r="H216" s="161" t="n">
         <v>50.8519543931306</v>
       </c>
     </row>
@@ -10406,19 +11491,19 @@
       <c r="C217" t="s">
         <v>10</v>
       </c>
-      <c r="D217" s="147" t="n">
+      <c r="D217" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E217" s="147" t="n">
+      <c r="E217" s="161" t="n">
         <v>64.2766776632237</v>
       </c>
-      <c r="F217" s="147" t="n">
+      <c r="F217" s="161" t="n">
         <v>51.0856933021132</v>
       </c>
-      <c r="G217" s="147" t="n">
+      <c r="G217" s="161" t="n">
         <v>230.231405329508</v>
       </c>
-      <c r="H217" s="147" t="n">
+      <c r="H217" s="161" t="n">
         <v>45.9761573254558</v>
       </c>
     </row>
@@ -10432,19 +11517,19 @@
       <c r="C218" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="147" t="n">
+      <c r="D218" s="161" t="n">
         <v>27.1661554144122</v>
       </c>
-      <c r="E218" s="147" t="n">
+      <c r="E218" s="161" t="n">
         <v>82.4207642461768</v>
       </c>
-      <c r="F218" s="147" t="n">
+      <c r="F218" s="161" t="n">
         <v>76.2266357646722</v>
       </c>
-      <c r="G218" s="147" t="n">
+      <c r="G218" s="161" t="n">
         <v>186.935817862709</v>
       </c>
-      <c r="H218" s="147" t="n">
+      <c r="H218" s="161" t="n">
         <v>45.1647172981408</v>
       </c>
     </row>
@@ -10458,19 +11543,19 @@
       <c r="C219" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="147" t="n">
+      <c r="D219" s="161" t="n">
         <v>18.3439363278441</v>
       </c>
-      <c r="E219" s="147" t="n">
+      <c r="E219" s="161" t="n">
         <v>85.2009730531092</v>
       </c>
-      <c r="F219" s="147" t="n">
+      <c r="F219" s="161" t="n">
         <v>78.8495402649882</v>
       </c>
-      <c r="G219" s="147" t="n">
+      <c r="G219" s="161" t="n">
         <v>221.439043531171</v>
       </c>
-      <c r="H219" s="147" t="n">
+      <c r="H219" s="161" t="n">
         <v>53.7004730300107</v>
       </c>
     </row>
@@ -10484,19 +11569,19 @@
       <c r="C220" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="147" t="n">
+      <c r="D220" s="161" t="n">
         <v>10.3077640640442</v>
       </c>
-      <c r="E220" s="147" t="n">
+      <c r="E220" s="161" t="n">
         <v>92.209697724001</v>
       </c>
-      <c r="F220" s="147" t="n">
+      <c r="F220" s="161" t="n">
         <v>88.552148919354</v>
       </c>
-      <c r="G220" s="147" t="n">
+      <c r="G220" s="161" t="n">
         <v>195.108303257447</v>
       </c>
-      <c r="H220" s="147" t="n">
+      <c r="H220" s="161" t="n">
         <v>48.2545859309892</v>
       </c>
     </row>
@@ -10510,19 +11595,19 @@
       <c r="C221" t="s">
         <v>11</v>
       </c>
-      <c r="D221" s="147" t="n">
+      <c r="D221" s="161" t="n">
         <v>4.12310562561766</v>
       </c>
-      <c r="E221" s="147" t="n">
+      <c r="E221" s="161" t="n">
         <v>19.9349164171015</v>
       </c>
-      <c r="F221" s="147" t="n">
+      <c r="F221" s="161" t="n">
         <v>16.3477827242718</v>
       </c>
-      <c r="G221" s="147" t="n">
+      <c r="G221" s="161" t="n">
         <v>106.518777687317</v>
       </c>
-      <c r="H221" s="147" t="n">
+      <c r="H221" s="161" t="n">
         <v>13.2701517956382</v>
       </c>
     </row>
@@ -10536,19 +11621,19 @@
       <c r="C222" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="147" t="n">
+      <c r="D222" s="161" t="n">
         <v>4.12310562561766</v>
       </c>
-      <c r="E222" s="147" t="n">
+      <c r="E222" s="161" t="n">
         <v>70.401442182954</v>
       </c>
-      <c r="F222" s="147" t="n">
+      <c r="F222" s="161" t="n">
         <v>58.4347884013144</v>
       </c>
-      <c r="G222" s="147" t="n">
+      <c r="G222" s="161" t="n">
         <v>222.733585253774</v>
       </c>
-      <c r="H222" s="147" t="n">
+      <c r="H222" s="161" t="n">
         <v>52.9677172311499</v>
       </c>
     </row>
@@ -10562,19 +11647,19 @@
       <c r="C223" t="s">
         <v>12</v>
       </c>
-      <c r="D223" s="147" t="n">
+      <c r="D223" s="161" t="n">
         <v>6.9462219947249</v>
       </c>
-      <c r="E223" s="147" t="n">
+      <c r="E223" s="161" t="n">
         <v>14.204997335896</v>
       </c>
-      <c r="F223" s="147" t="n">
+      <c r="F223" s="161" t="n">
         <v>12.5896783120142</v>
       </c>
-      <c r="G223" s="147" t="n">
+      <c r="G223" s="161" t="n">
         <v>29.5465734053883</v>
       </c>
-      <c r="H223" s="147" t="n">
+      <c r="H223" s="161" t="n">
         <v>7.16676724884763</v>
       </c>
     </row>
@@ -10588,19 +11673,19 @@
       <c r="C224" t="s">
         <v>12</v>
       </c>
-      <c r="D224" s="147" t="n">
+      <c r="D224" s="161" t="n">
         <v>3.5</v>
       </c>
-      <c r="E224" s="147" t="n">
+      <c r="E224" s="161" t="n">
         <v>17.2116082705452</v>
       </c>
-      <c r="F224" s="147" t="n">
+      <c r="F224" s="161" t="n">
         <v>15.4029218007494</v>
       </c>
-      <c r="G224" s="147" t="n">
+      <c r="G224" s="161" t="n">
         <v>37.5133309638054</v>
       </c>
-      <c r="H224" s="147" t="n">
+      <c r="H224" s="161" t="n">
         <v>7.46148868297155</v>
       </c>
     </row>
@@ -10614,19 +11699,19 @@
       <c r="C225" t="s">
         <v>12</v>
       </c>
-      <c r="D225" s="147" t="n">
+      <c r="D225" s="161" t="n">
         <v>4.03112887414927</v>
       </c>
-      <c r="E225" s="147" t="n">
+      <c r="E225" s="161" t="n">
         <v>14.4656169659949</v>
       </c>
-      <c r="F225" s="147" t="n">
+      <c r="F225" s="161" t="n">
         <v>12.9315923337415</v>
       </c>
-      <c r="G225" s="147" t="n">
+      <c r="G225" s="161" t="n">
         <v>33.8008875623111</v>
       </c>
-      <c r="H225" s="147" t="n">
+      <c r="H225" s="161" t="n">
         <v>6.79918433241985</v>
       </c>
     </row>
@@ -10640,19 +11725,19 @@
       <c r="C226" t="s">
         <v>12</v>
       </c>
-      <c r="D226" s="147" t="n">
+      <c r="D226" s="161" t="n">
         <v>4.12310562561766</v>
       </c>
-      <c r="E226" s="147" t="n">
+      <c r="E226" s="161" t="n">
         <v>17.2278569518821</v>
       </c>
-      <c r="F226" s="147" t="n">
+      <c r="F226" s="161" t="n">
         <v>15.8902485820707</v>
       </c>
-      <c r="G226" s="147" t="n">
+      <c r="G226" s="161" t="n">
         <v>49.2163590689112</v>
       </c>
-      <c r="H226" s="147" t="n">
+      <c r="H226" s="161" t="n">
         <v>9.12843883874399</v>
       </c>
     </row>
@@ -10666,19 +11751,19 @@
       <c r="C227" t="s">
         <v>12</v>
       </c>
-      <c r="D227" s="147" t="n">
+      <c r="D227" s="161" t="n">
         <v>3.20156211871642</v>
       </c>
-      <c r="E227" s="147" t="n">
+      <c r="E227" s="161" t="n">
         <v>15.0922592771982</v>
       </c>
-      <c r="F227" s="147" t="n">
+      <c r="F227" s="161" t="n">
         <v>14.0445267832253</v>
       </c>
-      <c r="G227" s="147" t="n">
+      <c r="G227" s="161" t="n">
         <v>49.2163590689112</v>
       </c>
-      <c r="H227" s="147" t="n">
+      <c r="H227" s="161" t="n">
         <v>7.82011582611576</v>
       </c>
     </row>
@@ -10702,7 +11787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10722,7 +11807,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -10739,25 +11824,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
